--- a/data/hotels_by_city/Houston/Houston_shard_53.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_53.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56701-d8722633-Reviews-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Best-Western-Plus-Spring-Inn-Suites.h12501866.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1567 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r596384992-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>8722633</t>
+  </si>
+  <si>
+    <t>596384992</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Escaping the heat in Spring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When my air conditioner was on the blink, I took refuge in my local Best Western. I had a very positive experience. The hotel was extremely clean and the staff was great. This hotel is ideally situated for families traveling to the area. It is located next to Splashtown and it is close to shopping and restaurants. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r591886059-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>591886059</t>
+  </si>
+  <si>
+    <t>06/30/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checkout was the worst </t>
+  </si>
+  <si>
+    <t>The staff was fabulous and I would rate them as a 10 . Especially Kimberley at the front desk . I have stayed there many times and consider the hotel as my hotel of choice in Houston . I stayed 5 nights on my recent trip. Upon preparing for my checkout on June 29th I had some final business to do prior to leaving . I called the front desk and requested a late checkout not to exceed 1 pm . Upon leaving the hotel I stopped by the front desk and confirmed that the late checkout was ok . Sarika said that would be fine . About 11 am my phone went crazy with text and calls from my wife . She is deaf and the manager ( Patel ) was calling telling her she must vacate the room . If I wasn’t back by 12 pm she would have to put all our luggage on the cart and come down and wait for me in the Lobby . This really scared her since she is handicap as well as English not being her primary language . She is a LEGAL IMMIGRANT ! Then cell phone began ringing from calls from the hotel manager. I was in a business meeting and had to leave my meeting to drink back 20 miles to pick up my wife by 12 pm . I arrived back there at 11:55 am and hurriedly...The staff was fabulous and I would rate them as a 10 . Especially Kimberley at the front desk . I have stayed there many times and consider the hotel as my hotel of choice in Houston . I stayed 5 nights on my recent trip. Upon preparing for my checkout on June 29th I had some final business to do prior to leaving . I called the front desk and requested a late checkout not to exceed 1 pm . Upon leaving the hotel I stopped by the front desk and confirmed that the late checkout was ok . Sarika said that would be fine . About 11 am my phone went crazy with text and calls from my wife . She is deaf and the manager ( Patel ) was calling telling her she must vacate the room . If I wasn’t back by 12 pm she would have to put all our luggage on the cart and come down and wait for me in the Lobby . This really scared her since she is handicap as well as English not being her primary language . She is a LEGAL IMMIGRANT ! Then cell phone began ringing from calls from the hotel manager. I was in a business meeting and had to leave my meeting to drink back 20 miles to pick up my wife by 12 pm . I arrived back there at 11:55 am and hurriedly picked up my wife , but prior to leaving I had a very heated conversation the Patel the so called manager . I told him the front desk clerk approved my checkout which he denied . I try to follow protocol , which I did , but when the AH called me a liar we almost had an event . But a piece of s___ like that AH isn’t worth it . I stay in at least 100 plus nights a year in hotels and have been traveling for 50 years   and never  had an event like this one . As I said the staff is a 10 on 10 , but this AH is below a ZERO ! MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>The staff was fabulous and I would rate them as a 10 . Especially Kimberley at the front desk . I have stayed there many times and consider the hotel as my hotel of choice in Houston . I stayed 5 nights on my recent trip. Upon preparing for my checkout on June 29th I had some final business to do prior to leaving . I called the front desk and requested a late checkout not to exceed 1 pm . Upon leaving the hotel I stopped by the front desk and confirmed that the late checkout was ok . Sarika said that would be fine . About 11 am my phone went crazy with text and calls from my wife . She is deaf and the manager ( Patel ) was calling telling her she must vacate the room . If I wasn’t back by 12 pm she would have to put all our luggage on the cart and come down and wait for me in the Lobby . This really scared her since she is handicap as well as English not being her primary language . She is a LEGAL IMMIGRANT ! Then cell phone began ringing from calls from the hotel manager. I was in a business meeting and had to leave my meeting to drink back 20 miles to pick up my wife by 12 pm . I arrived back there at 11:55 am and hurriedly...The staff was fabulous and I would rate them as a 10 . Especially Kimberley at the front desk . I have stayed there many times and consider the hotel as my hotel of choice in Houston . I stayed 5 nights on my recent trip. Upon preparing for my checkout on June 29th I had some final business to do prior to leaving . I called the front desk and requested a late checkout not to exceed 1 pm . Upon leaving the hotel I stopped by the front desk and confirmed that the late checkout was ok . Sarika said that would be fine . About 11 am my phone went crazy with text and calls from my wife . She is deaf and the manager ( Patel ) was calling telling her she must vacate the room . If I wasn’t back by 12 pm she would have to put all our luggage on the cart and come down and wait for me in the Lobby . This really scared her since she is handicap as well as English not being her primary language . She is a LEGAL IMMIGRANT ! Then cell phone began ringing from calls from the hotel manager. I was in a business meeting and had to leave my meeting to drink back 20 miles to pick up my wife by 12 pm . I arrived back there at 11:55 am and hurriedly picked up my wife , but prior to leaving I had a very heated conversation the Patel the so called manager . I told him the front desk clerk approved my checkout which he denied . I try to follow protocol , which I did , but when the AH called me a liar we almost had an event . But a piece of s___ like that AH isn’t worth it . I stay in at least 100 plus nights a year in hotels and have been traveling for 50 years   and never  had an event like this one . As I said the staff is a 10 on 10 , but this AH is below a ZERO ! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r584330074-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>584330074</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Wedding Trip to Spring, TX</t>
+  </si>
+  <si>
+    <t>BestWestern,353 Louetta Rd,Spring,TX- clean,comfortable,friendly staff.Free breakfast-usual fare economy hotels,reconstituted eggs/sausage/generous carbs. Do not book with Reservation Counter, Inc., which uses bait &amp; switch tactics. Offered suite in large print, confirmed 2QB regular room. MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>BestWestern,353 Louetta Rd,Spring,TX- clean,comfortable,friendly staff.Free breakfast-usual fare economy hotels,reconstituted eggs/sausage/generous carbs. Do not book with Reservation Counter, Inc., which uses bait &amp; switch tactics. Offered suite in large print, confirmed 2QB regular room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r582200176-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>582200176</t>
+  </si>
+  <si>
+    <t>05/23/2018</t>
+  </si>
+  <si>
+    <t>Care</t>
+  </si>
+  <si>
+    <t>My disable and elder Uncle stayed there one night. He was well looked after and front desk showed a high level of humanity. It’s very nice to see that this Hôtel has staff with kind hearts. Thank you,Jennifer EMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2018</t>
+  </si>
+  <si>
+    <t>My disable and elder Uncle stayed there one night. He was well looked after and front desk showed a high level of humanity. It’s very nice to see that this Hôtel has staff with kind hearts. Thank you,Jennifer EMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r575993212-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>575993212</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>This was my first time staying in a Best Western. The quality of the hotel was much better than expected. The rates were good especially for the last week of rodeo. We were not able to connection to WiFi. However, I was especially impressed with service on the last night of my stay. Dmitri took care of the little details which would have made the entire stay excellent if everyone provided service like him.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>This was my first time staying in a Best Western. The quality of the hotel was much better than expected. The rates were good especially for the last week of rodeo. We were not able to connection to WiFi. However, I was especially impressed with service on the last night of my stay. Dmitri took care of the little details which would have made the entire stay excellent if everyone provided service like him.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r575536517-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>575536517</t>
+  </si>
+  <si>
+    <t>04/24/2018</t>
+  </si>
+  <si>
+    <t>Good for 1 night stay</t>
+  </si>
+  <si>
+    <t>We were in town for a one-day seminar. We were able to get a late check-in which was great. Kimberly, the night check in person, was wonderful! Courteous and fun personality! And when we were checking out and packing the car, the groundskeeper said to us,  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We were in town for a one-day seminar. We were able to get a late check-in which was great. Kimberly, the night check in person, was wonderful! Courteous and fun personality! And when we were checking out and packing the car, the groundskeeper said to us,  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r569562534-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>569562534</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>BW, in Spring Texas</t>
+  </si>
+  <si>
+    <t>I stay in BW whenever possible. This was one of the nicest ones. I want quiet, clean, good internet. I will use this hotel again if I need to.I love the bed pillows. I also loved the quiet, and I slept well. MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay in BW whenever possible. This was one of the nicest ones. I want quiet, clean, good internet. I will use this hotel again if I need to.I love the bed pillows. I also loved the quiet, and I slept well. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r560056480-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>560056480</t>
+  </si>
+  <si>
+    <t>02/12/2018</t>
+  </si>
+  <si>
+    <t>BW stay, Spring, TX</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel 3 nights.  The staff at check-in, both night and day crew, appeared to be irritable.  The room they gave us smelled moldy, we asked about it and she started to say it would cost more to change but then called manager who approved a different room which was better but still smelled musty.  The tv controller did not work, asked for fresh batteries, Sikra was irritated and said it is all about where you hold it to change channels.  That did not work either so we waited until next morning to ask for batteries again  We got the batteries but did not help.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel 3 nights.  The staff at check-in, both night and day crew, appeared to be irritable.  The room they gave us smelled moldy, we asked about it and she started to say it would cost more to change but then called manager who approved a different room which was better but still smelled musty.  The tv controller did not work, asked for fresh batteries, Sikra was irritated and said it is all about where you hold it to change channels.  That did not work either so we waited until next morning to ask for batteries again  We got the batteries but did not help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r556862711-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>556862711</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>Convenient and clean</t>
+  </si>
+  <si>
+    <t>This hotel was easy to find and about an hour and a half from the Galveston pier.   Check in was fast and friendly. The room was on the bottom level and was very noisy from  5he doors slamming above us. It settled down after 10:30 so we could sleep.  Breakfast was fake eggs and biscuits and awful sausage. We were aware of this before we booked, so we had fruit and yogurt and coffee.   Good place to spend the night and Cheddars is just down the road.  MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was easy to find and about an hour and a half from the Galveston pier.   Check in was fast and friendly. The room was on the bottom level and was very noisy from  5he doors slamming above us. It settled down after 10:30 so we could sleep.  Breakfast was fake eggs and biscuits and awful sausage. We were aware of this before we booked, so we had fruit and yogurt and coffee.   Good place to spend the night and Cheddars is just down the road.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r546325404-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>546325404</t>
+  </si>
+  <si>
+    <t>12/09/2017</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t>We have stayed here before. The staff is friendly. The rooms are nice, clean and roomy. The breakfast was good for hotel food. the food was fresh, and well presented. We will stay here again if in the area.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r543940649-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>543940649</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>best western/spring, tx.</t>
+  </si>
+  <si>
+    <t>overall I'd give this hotel a very good rating. The only complaint we had was that the toilet in our room was loose where it connects to the floor, making it feel unstable. The staff was very good, and the free breakfast buffet was above average (great coffee).MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded November 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2017</t>
+  </si>
+  <si>
+    <t>overall I'd give this hotel a very good rating. The only complaint we had was that the toilet in our room was loose where it connects to the floor, making it feel unstable. The staff was very good, and the free breakfast buffet was above average (great coffee).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r539706304-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>539706304</t>
+  </si>
+  <si>
+    <t>11/09/2017</t>
+  </si>
+  <si>
+    <t>Excellent hotel !</t>
+  </si>
+  <si>
+    <t>I stay here every visit to Houston. Location is perfect for easy access to Interstate 45 and is located close to The Woodlands and Old Town Spring. Very professional staff; really nice rooms; breakfast is great. Love the decor of the lobby and breakfast room.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded November 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2017</t>
+  </si>
+  <si>
+    <t>I stay here every visit to Houston. Location is perfect for easy access to Interstate 45 and is located close to The Woodlands and Old Town Spring. Very professional staff; really nice rooms; breakfast is great. Love the decor of the lobby and breakfast room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r535653664-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>535653664</t>
+  </si>
+  <si>
+    <t>10/23/2017</t>
+  </si>
+  <si>
+    <t>WE REALLY APPRECIATE THE ROOM</t>
+  </si>
+  <si>
+    <t>not the best best western I have stayed at , I had ants in my room and my kid had shoes come up missing and my bed was made with a filthy dirty sheet. restocking on items was limited to none when house keeping cameMoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded November 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>not the best best western I have stayed at , I had ants in my room and my kid had shoes come up missing and my bed was made with a filthy dirty sheet. restocking on items was limited to none when house keeping cameMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r532201465-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>532201465</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Clean, quiet, great location</t>
+  </si>
+  <si>
+    <t>We just needed a place close to the airport for our next-morning flight, and this place was perfect. Clean, quiet, comfy room and good breakfast. The people working the front desk were really friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded October 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2017</t>
+  </si>
+  <si>
+    <t>We just needed a place close to the airport for our next-morning flight, and this place was perfect. Clean, quiet, comfy room and good breakfast. The people working the front desk were really friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r522062907-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>522062907</t>
+  </si>
+  <si>
+    <t>09/06/2017</t>
+  </si>
+  <si>
+    <t>A safe haven from the hurricane</t>
+  </si>
+  <si>
+    <t>During Hurricane Harvey we lost power for 5 days and this place was wonderful! Great breakfast, super clean and we had a kitchen which helped us save some of our food. I will stay here again!!! Housekeeping was wonderful when we ran out of towels they made sure they brought some fresh and just smiles everywhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded September 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2017</t>
+  </si>
+  <si>
+    <t>During Hurricane Harvey we lost power for 5 days and this place was wonderful! Great breakfast, super clean and we had a kitchen which helped us save some of our food. I will stay here again!!! Housekeeping was wonderful when we ran out of towels they made sure they brought some fresh and just smiles everywhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r511023012-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>511023012</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Wonderful hotel</t>
+  </si>
+  <si>
+    <t>We had a great stay at this hotel in the king suite. Very clean, modern, comfy bed and perfect location in Spring. We traveled with our toddler and received a clean pack and play upon check in. Everything was really nice and we had a comfortable stay! MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded August 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2017</t>
+  </si>
+  <si>
+    <t>We had a great stay at this hotel in the king suite. Very clean, modern, comfy bed and perfect location in Spring. We traveled with our toddler and received a clean pack and play upon check in. Everything was really nice and we had a comfortable stay! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r506503112-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>506503112</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Very nice, clean and peaceful with a friendly staff. This is my second time staying at this hotel and l will continue to come here for lesiure. Also located across from Walmart, Khols, Ross and my favorite store the Dollar Tree!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Very nice, clean and peaceful with a friendly staff. This is my second time staying at this hotel and l will continue to come here for lesiure. Also located across from Walmart, Khols, Ross and my favorite store the Dollar Tree!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r499566258-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>499566258</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Family get-a-way</t>
+  </si>
+  <si>
+    <t>quite relaxing time with the kids. great locate due to the water park is next door had a great view of the water just out my hotel window, thanks so much for your great hospitality and service, will seenyou very soon for my next get-a-way.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>quite relaxing time with the kids. great locate due to the water park is next door had a great view of the water just out my hotel window, thanks so much for your great hospitality and service, will seenyou very soon for my next get-a-way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r496176718-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>496176718</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Relaxing vacation!</t>
+  </si>
+  <si>
+    <t>My family, 7 adults and 4 children flew in to Houston for my niece's wedding.  Check in was quick and easy,  breakfast was great and rooms very clean!  The beds were extremely comfortable.  Location was another nice factor!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>My family, 7 adults and 4 children flew in to Houston for my niece's wedding.  Check in was quick and easy,  breakfast was great and rooms very clean!  The beds were extremely comfortable.  Location was another nice factor!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r495536927-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>495536927</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Very Clean and GREAT price!</t>
+  </si>
+  <si>
+    <t>We needed a hotel to stay in while looking for a house to buy in Houston. My two children and i had a great experience here. The rooms, hotel and parking lot were very clean. It is in a great area and the Splash Town water park is in it's backyard. Very close to everything you need.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>We needed a hotel to stay in while looking for a house to buy in Houston. My two children and i had a great experience here. The rooms, hotel and parking lot were very clean. It is in a great area and the Splash Town water park is in it's backyard. Very close to everything you need.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r495117480-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>495117480</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>We went without a working television the first evening. The second night and third day there</t>
+  </si>
+  <si>
+    <t>We went without a working television the first day. Our television problem was not fixed until after ten p.m.  The second night and the next morning there were no clean bath linen. We were told that we had to supply our own because the hotel was full to capacity.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>We went without a working television the first day. Our television problem was not fixed until after ten p.m.  The second night and the next morning there were no clean bath linen. We were told that we had to supply our own because the hotel was full to capacity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r492239796-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>492239796</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>A wonderful stay!</t>
+  </si>
+  <si>
+    <t>The place is clean, spacious and Sarika, the front desk attendant, was very helpful. The place is located by many businesses in walking distance or a short drive. I will definitely keep this place in mind for my next stay in Spring.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2017</t>
+  </si>
+  <si>
+    <t>The place is clean, spacious and Sarika, the front desk attendant, was very helpful. The place is located by many businesses in walking distance or a short drive. I will definitely keep this place in mind for my next stay in Spring.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r491833751-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>491833751</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice quiet visit </t>
+  </si>
+  <si>
+    <t>My mom and I stayed at this hotel because it was near our final destination.  We arrived Wednesday evening without reservations and they accommodated my mom's special request of a ground floor room near the breakfast room.  The room was nice and clean.  When we had trouble getting the tv channels to change they even brought us a new remote.  I have discovered that a lot of times if you are on a ground floor room it can be noisy because of the room above.  This was not the case here. Our room was quiet and even though I am a light sleeper I was able to get some sleep.  The breakfast had a nice variety too.MoreShow less</t>
+  </si>
+  <si>
+    <t>My mom and I stayed at this hotel because it was near our final destination.  We arrived Wednesday evening without reservations and they accommodated my mom's special request of a ground floor room near the breakfast room.  The room was nice and clean.  When we had trouble getting the tv channels to change they even brought us a new remote.  I have discovered that a lot of times if you are on a ground floor room it can be noisy because of the room above.  This was not the case here. Our room was quiet and even though I am a light sleeper I was able to get some sleep.  The breakfast had a nice variety too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r491746632-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>491746632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best of the best </t>
+  </si>
+  <si>
+    <t>Was an excellent stay. Room was clean, and breakfast was fresh! Definitely recommend to anyone. And definitely visiting again. People friendly,  receptionist was very kind, check in was fast. Jist an excellent experience. MoreShow less</t>
+  </si>
+  <si>
+    <t>Was an excellent stay. Room was clean, and breakfast was fresh! Definitely recommend to anyone. And definitely visiting again. People friendly,  receptionist was very kind, check in was fast. Jist an excellent experience. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r484319175-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>484319175</t>
+  </si>
+  <si>
+    <t>05/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good Service. Terrible No Good Awful Breakfast. </t>
+  </si>
+  <si>
+    <t>Best Western Plus Spring... We need to talk. Your hotel is clean and newish. Your staff is kind and generally competent. Your pool is nice and rarely crowded. Your breakfast is... easily the worst I've had in a hotel ever. Ever. Ever. Ever. Let me tell you what I observed each morning (three days worth) in your breakfast area. 1. Guest fills a plate with food. Biscuits, gravy, eggs, hash browns, etc. They take a seat and tuck in. 2. First bite- stopped in their tracks. The gravy is watery, inedibly salty, and tastes very strongly of flour (meaning it wasn't cooked long enough). The hashbrowns were either prepared at 1am or just overcooked to the point of literally tasting like cardboard. Seriously do something about the hashbrowns! The eggs... ugh you get the point. 3. Each guest throws away at least an entire plate full of inedible food and tries again. Maybe they even throw out a second plate, just trying to find some sustenance among the overcooked food. 4. Eventually they settle on yogurt or a bagel. For a decent hotel, you are wasting SO MUCH money on food getting thrown away. Every table seemed to have the same experience. Your breakfast staff is not tasting the food or just doesn't care that it's nasty. I witnessed this three days in a row. A crappy breakfast isn't a deal breaker for everyone- but it is for our family....Best Western Plus Spring... We need to talk. Your hotel is clean and newish. Your staff is kind and generally competent. Your pool is nice and rarely crowded. Your breakfast is... easily the worst I've had in a hotel ever. Ever. Ever. Ever. Let me tell you what I observed each morning (three days worth) in your breakfast area. 1. Guest fills a plate with food. Biscuits, gravy, eggs, hash browns, etc. They take a seat and tuck in. 2. First bite- stopped in their tracks. The gravy is watery, inedibly salty, and tastes very strongly of flour (meaning it wasn't cooked long enough). The hashbrowns were either prepared at 1am or just overcooked to the point of literally tasting like cardboard. Seriously do something about the hashbrowns! The eggs... ugh you get the point. 3. Each guest throws away at least an entire plate full of inedible food and tries again. Maybe they even throw out a second plate, just trying to find some sustenance among the overcooked food. 4. Eventually they settle on yogurt or a bagel. For a decent hotel, you are wasting SO MUCH money on food getting thrown away. Every table seemed to have the same experience. Your breakfast staff is not tasting the food or just doesn't care that it's nasty. I witnessed this three days in a row. A crappy breakfast isn't a deal breaker for everyone- but it is for our family. We have a young child and breakfast sets the tone for the day. I would highly recommend the manager of this hotel to set up some standards for breakfast service. You'll save money on throwaway food at the very least. That is all. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 16, 2017</t>
+  </si>
+  <si>
+    <t>Best Western Plus Spring... We need to talk. Your hotel is clean and newish. Your staff is kind and generally competent. Your pool is nice and rarely crowded. Your breakfast is... easily the worst I've had in a hotel ever. Ever. Ever. Ever. Let me tell you what I observed each morning (three days worth) in your breakfast area. 1. Guest fills a plate with food. Biscuits, gravy, eggs, hash browns, etc. They take a seat and tuck in. 2. First bite- stopped in their tracks. The gravy is watery, inedibly salty, and tastes very strongly of flour (meaning it wasn't cooked long enough). The hashbrowns were either prepared at 1am or just overcooked to the point of literally tasting like cardboard. Seriously do something about the hashbrowns! The eggs... ugh you get the point. 3. Each guest throws away at least an entire plate full of inedible food and tries again. Maybe they even throw out a second plate, just trying to find some sustenance among the overcooked food. 4. Eventually they settle on yogurt or a bagel. For a decent hotel, you are wasting SO MUCH money on food getting thrown away. Every table seemed to have the same experience. Your breakfast staff is not tasting the food or just doesn't care that it's nasty. I witnessed this three days in a row. A crappy breakfast isn't a deal breaker for everyone- but it is for our family....Best Western Plus Spring... We need to talk. Your hotel is clean and newish. Your staff is kind and generally competent. Your pool is nice and rarely crowded. Your breakfast is... easily the worst I've had in a hotel ever. Ever. Ever. Ever. Let me tell you what I observed each morning (three days worth) in your breakfast area. 1. Guest fills a plate with food. Biscuits, gravy, eggs, hash browns, etc. They take a seat and tuck in. 2. First bite- stopped in their tracks. The gravy is watery, inedibly salty, and tastes very strongly of flour (meaning it wasn't cooked long enough). The hashbrowns were either prepared at 1am or just overcooked to the point of literally tasting like cardboard. Seriously do something about the hashbrowns! The eggs... ugh you get the point. 3. Each guest throws away at least an entire plate full of inedible food and tries again. Maybe they even throw out a second plate, just trying to find some sustenance among the overcooked food. 4. Eventually they settle on yogurt or a bagel. For a decent hotel, you are wasting SO MUCH money on food getting thrown away. Every table seemed to have the same experience. Your breakfast staff is not tasting the food or just doesn't care that it's nasty. I witnessed this three days in a row. A crappy breakfast isn't a deal breaker for everyone- but it is for our family. We have a young child and breakfast sets the tone for the day. I would highly recommend the manager of this hotel to set up some standards for breakfast service. You'll save money on throwaway food at the very least. That is all. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r484240598-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>484240598</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>IT WAS THE BEST HOTEL</t>
+  </si>
+  <si>
+    <t>The service at this Hotel is excellant, From Reception Desk, Morning Break Fast to  Clean Rooms.Very Good Location, Easy Access to Freeway I liked everything at this Hotel. I highly recommend this hotel to any body who visit Spring, TX</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r484132052-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>484132052</t>
+  </si>
+  <si>
+    <t>Clean, clean, clean</t>
+  </si>
+  <si>
+    <t>Very clean,new, nonsmoking hotel. Friendly staff.  Convenient to shopping and interstate.   Breakfast is typical of most hotels. The Woodlands is close by. Great shopping and restaurants there. Airport is about 20 minutes away. MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Very clean,new, nonsmoking hotel. Friendly staff.  Convenient to shopping and interstate.   Breakfast is typical of most hotels. The Woodlands is close by. Great shopping and restaurants there. Airport is about 20 minutes away. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r482006815-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>482006815</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Great rooms, great staff,great stay. clean rooms. quiet, courteous staff. internet worked great. breakfast was good Staff was nice, professional beds were comfy. bathrooms were clean and well stocked, carpets were clean. no smoking in hotel so no smoke smellMoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Great rooms, great staff,great stay. clean rooms. quiet, courteous staff. internet worked great. breakfast was good Staff was nice, professional beds were comfy. bathrooms were clean and well stocked, carpets were clean. no smoking in hotel so no smoke smellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r481485617-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>481485617</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>New BW in Spring, Tx</t>
+  </si>
+  <si>
+    <t>Very nice property with capable staff to help. I had not been in a BW since I was a child but remembered them as a quality chain. This location was ideal for me and I gave it a try. I was pleased with everything including the internet service. I will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2017</t>
+  </si>
+  <si>
+    <t>Very nice property with capable staff to help. I had not been in a BW since I was a child but remembered them as a quality chain. This location was ideal for me and I gave it a try. I was pleased with everything including the internet service. I will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r479451035-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>479451035</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay</t>
+  </si>
+  <si>
+    <t>My husband and I highly recommend this Best Western.Very clean comfortable room and lobby. The staff went above and beyond to accommodate. Friendly service, wonderful rooms and great location, easy access from 45.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>My husband and I highly recommend this Best Western.Very clean comfortable room and lobby. The staff went above and beyond to accommodate. Friendly service, wonderful rooms and great location, easy access from 45.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r472357172-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>472357172</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>Would not recommend this place.  A dirty room with other people's things in room for check in. Had something floating in the orange juice and even after changing it the green was still floating. Disgusting! Tried to talk to a manager and he was no help MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Would not recommend this place.  A dirty room with other people's things in room for check in. Had something floating in the orange juice and even after changing it the green was still floating. Disgusting! Tried to talk to a manager and he was no help More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r471062634-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>471062634</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Weekend escape</t>
+  </si>
+  <si>
+    <t>Clean and quiet hotel. Breakfast was hot and fresh. The hotel is conveconveniently located near shopping center such as Wal-Mart and other outlet stores. There is several restaraunts located within walking distance as well. Great place to stay!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r470044380-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>470044380</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Great stay for the pay</t>
+  </si>
+  <si>
+    <t>The hotel was well kept. The staff was amazing. This was a very short stay but exceeded expectation nonetheless. The very late check in was handled professionally and he was more than accommodating. Needed a late check out and again they were more than happy to help MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded March 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was well kept. The staff was amazing. This was a very short stay but exceeded expectation nonetheless. The very late check in was handled professionally and he was more than accommodating. Needed a late check out and again they were more than happy to help More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r468033325-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>468033325</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice staff and comfortable beds. The breakfast is great. It's close to the Interstate for access to stores and the rodeo. My husband and I will come back to enjoy the pool and the sites around old town spring. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r467978891-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>467978891</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>This is the first time I have stayed at this hotel. It was very nice. y Very clean. The staff was wonderful and nice to talk to. Could use better eggs at breakfast taste like card board. Sleep really well.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>This is the first time I have stayed at this hotel. It was very nice. y Very clean. The staff was wonderful and nice to talk to. Could use better eggs at breakfast taste like card board. Sleep really well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r464876417-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>464876417</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Great spontaneous stay</t>
+  </si>
+  <si>
+    <t>Had a family emergency and selected this hotel online. Was very pleased with this hotel and will feel comfortable with returning. The hotel and room decor and the comfort of the room were all excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2017</t>
+  </si>
+  <si>
+    <t>Had a family emergency and selected this hotel online. Was very pleased with this hotel and will feel comfortable with returning. The hotel and room decor and the comfort of the room were all excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r461760515-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>461760515</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Will be staying here again on my next trip</t>
+  </si>
+  <si>
+    <t>Nice hotel. I will book here again. Easy to get to. Just off Interstate 45 North access road. Location off highway but close to local restaurants. New equipment in gym. All accommodations as expected from Best Western. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded February 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel. I will book here again. Easy to get to. Just off Interstate 45 North access road. Location off highway but close to local restaurants. New equipment in gym. All accommodations as expected from Best Western. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r461891684-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>461891684</t>
+  </si>
+  <si>
+    <t>Soccer Trip to Spring TX</t>
+  </si>
+  <si>
+    <t>This was a great experience for me and my team. We booked 14 rooms for two days at this hotel. They went above and beyond to make sure our stay went well. The rooms were fresh and clean and the breakfast in the morning hit the spot, the girls loved the "pancake printer". I would highly recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>This was a great experience for me and my team. We booked 14 rooms for two days at this hotel. They went above and beyond to make sure our stay went well. The rooms were fresh and clean and the breakfast in the morning hit the spot, the girls loved the "pancake printer". I would highly recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r459308470-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>459308470</t>
+  </si>
+  <si>
+    <t>02/13/2017</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>The facility is new.  The front desk staff is friendly and efficient.  The rooms are equipped with all necessary accessories and are comfortable.  The breakfast offerings were tasty and the quality of the offerings were in line with a hotel of this chain.  Good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>The facility is new.  The front desk staff is friendly and efficient.  The rooms are equipped with all necessary accessories and are comfortable.  The breakfast offerings were tasty and the quality of the offerings were in line with a hotel of this chain.  Good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r447980965-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>447980965</t>
+  </si>
+  <si>
+    <t>12/30/2016</t>
+  </si>
+  <si>
+    <t>one day trip</t>
+  </si>
+  <si>
+    <t>Everything was great especially for the price.  Bed and pillows a little hard for me but still a very nice room.  Staff was great. Good location and had a lot of good restaurants in the area.  Would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Everything was great especially for the price.  Bed and pillows a little hard for me but still a very nice room.  Staff was great. Good location and had a lot of good restaurants in the area.  Would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r444268677-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>444268677</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel; new finishes</t>
+  </si>
+  <si>
+    <t>Stayed two nights at this hotel.  Like another reviewer said, front desk staff was not the most efficient, but pleasant.  When I arrived, the clerk was in the restaurant area doing some personal stuff, another night she had a friend over.  But, whatever.  Checkout wasn't super fast, but oh well.The room was spacious, newer finishes, everything worked.  Bathroom was a little cramped because the rather large door opened inward and blocked the tub.  Room itself could have used more light as you walked in.  The light switch at the door would turn on only the light in the "foyer" area.  Then, you had to go through the room and turn on more lights.  My door latches were misaligned, so I had to pull up on the door to use the lock, which could have been an issue if there were an emergency evacuation - but I'm not sure there was an easy fix for that since it is a metal door with metal frame.  Bed was comfortable and had plenty of pillows of decent quality.The common areas were well appointed, nice lobby area, and everything was very clean.  They provided breakfast, it smelled good, but I did not have any.  Parking was plentiful the days I was there.  All-in-all, a nice hotel.  I paid $75/night going through my company's travel.  Would I stay again if in the area?  Yes.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed two nights at this hotel.  Like another reviewer said, front desk staff was not the most efficient, but pleasant.  When I arrived, the clerk was in the restaurant area doing some personal stuff, another night she had a friend over.  But, whatever.  Checkout wasn't super fast, but oh well.The room was spacious, newer finishes, everything worked.  Bathroom was a little cramped because the rather large door opened inward and blocked the tub.  Room itself could have used more light as you walked in.  The light switch at the door would turn on only the light in the "foyer" area.  Then, you had to go through the room and turn on more lights.  My door latches were misaligned, so I had to pull up on the door to use the lock, which could have been an issue if there were an emergency evacuation - but I'm not sure there was an easy fix for that since it is a metal door with metal frame.  Bed was comfortable and had plenty of pillows of decent quality.The common areas were well appointed, nice lobby area, and everything was very clean.  They provided breakfast, it smelled good, but I did not have any.  Parking was plentiful the days I was there.  All-in-all, a nice hotel.  I paid $75/night going through my company's travel.  Would I stay again if in the area?  Yes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r443629514-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>443629514</t>
+  </si>
+  <si>
+    <t>12/11/2016</t>
+  </si>
+  <si>
+    <t>Front Desk Service Need More Service Architecture</t>
+  </si>
+  <si>
+    <t>Our whole wedding party arrived late at night tired and the front desk woman sounded irritated that (1) we asked for an extra blanket and that (2) my cousin got reservations from expedia.  She probably meant well but the tone of her voice came off as severely rude and her responses were downright sarcastic.  At 1 am - what the???Sadly, it was only her who made the experience poor.  She did try to be nice the next morning but still came off as abject.  Maybe a little more service architecture would do her good?Rooms were excellent. Location was excellent.  Breakfast was fair with weird looking eggs.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r439089921-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>439089921</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Best Western Plus Spring Inn and Suites</t>
+  </si>
+  <si>
+    <t>This hotel was beautiful and comfortable and friendly and breakfast was wonderful. I will definitely be back to this hotel. The staff was friendly and helpful. I loved my stay and will book in the future.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r438915994-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>438915994</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>Your staff sucks!</t>
+  </si>
+  <si>
+    <t>I stayed there 2 nights and the room wasn't cleaned after the first night.I complained and not one thing was done about it. After your clerk Rosa looked into the credit with her manager she gave me a lame excuse the house keepers don't clean after 1:00 . She then hung up on me after I told her I would call the manager Monday.. Rude rude rude! Dont stay here. These people are horrible to deal with and lie about things they dont do.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r436040968-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>436040968</t>
+  </si>
+  <si>
+    <t>11/09/2016</t>
+  </si>
+  <si>
+    <t>oct 31 thru nov 8 2016</t>
+  </si>
+  <si>
+    <t>This was our first time at this particular Best Western and the whole experience was great. The room was very nice and the bed was comfortable. Bath room was spacious. Every staff  member we talked to was very helpful and friendly. We plan on staying here each time we visit.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r424963708-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>424963708</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Leisure</t>
+  </si>
+  <si>
+    <t>Was pleased with the quality of room and the friendly staff.  Was very convenient to stores and restaurants.  Easy to get on and off I-45. Water park directly in back of hotel Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Was pleased with the quality of room and the friendly staff.  Was very convenient to stores and restaurants.  Easy to get on and off I-45. Water park directly in back of hotel Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r423191455-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>423191455</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Nice, clean and new hotel!</t>
+  </si>
+  <si>
+    <t>The hotel is a great location, to stores and eating places. Its a new hotel so every thing was in great shape. However on this stay we where by other guest that seem to forget that they where at a hotel where the noise level is heard by all. So that made our stay not really great. Other then the noise, the hotel is new and very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded September 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2016</t>
+  </si>
+  <si>
+    <t>The hotel is a great location, to stores and eating places. Its a new hotel so every thing was in great shape. However on this stay we where by other guest that seem to forget that they where at a hotel where the noise level is heard by all. So that made our stay not really great. Other then the noise, the hotel is new and very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r415327225-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>415327225</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>I had arrived on a 6:30 am flight and had several hours to fill in until time to leave for a funeral. Mr. Rasesh Patel was so accommodating and allowed me to check in early and rest before attending a funeral. Also offered me the breakfast service. The hotel is clean and the staff are pleasant and attentive to  your needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded September 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2016</t>
+  </si>
+  <si>
+    <t>I had arrived on a 6:30 am flight and had several hours to fill in until time to leave for a funeral. Mr. Rasesh Patel was so accommodating and allowed me to check in early and rest before attending a funeral. Also offered me the breakfast service. The hotel is clean and the staff are pleasant and attentive to  your needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r393095428-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>393095428</t>
+  </si>
+  <si>
+    <t>07/15/2016</t>
+  </si>
+  <si>
+    <t>Excellent option for a hotel near Spring TX and the Airport</t>
+  </si>
+  <si>
+    <t>We stayed at the Best Western Plus in Spring Texas.  We were impressed by the friendly staff, clean building and room, breakfast, location near airport and the town of Spring TX and the price was very reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded July 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 18, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Best Western Plus in Spring Texas.  We were impressed by the friendly staff, clean building and room, breakfast, location near airport and the town of Spring TX and the price was very reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r386856899-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>386856899</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Great Property</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay at this property - great staff and beautiful hotel. Very comfortable rooms and great healthy breakfast options. I will be staying at this property again, during my future return to Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2016</t>
+  </si>
+  <si>
+    <t>Enjoyed the stay at this property - great staff and beautiful hotel. Very comfortable rooms and great healthy breakfast options. I will be staying at this property again, during my future return to Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r383993402-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>383993402</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Quick overnight</t>
+  </si>
+  <si>
+    <t>We checked in very late, and the front desk staff was wonderful despite the ridiculous hour. The room was stunning, much better than standard chain fare. The breakfast was about what one expects, but given the quality of the hotel itself (and the price) could have been better. MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2016</t>
+  </si>
+  <si>
+    <t>We checked in very late, and the front desk staff was wonderful despite the ridiculous hour. The room was stunning, much better than standard chain fare. The breakfast was about what one expects, but given the quality of the hotel itself (and the price) could have been better. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r380385206-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>380385206</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Very Good Stay</t>
+  </si>
+  <si>
+    <t>Do to overnight drive we arrived at Best Western Plus before noon. Very friendly desk clerk immediately checked with housekeeping and found an available room with two queen beds. When we got to room found a very clean, neat and very well decorated room. The neatness and look also were prevalent throughout the hotel. Room had a nice flat screen TV connected to Direct TV, bathroom had normal soap, shampoo, etc. Only drawback was temperature of bath water, while very warm it was not conducive to taking a hot bath if desired. The free breakfast was good serve yourself with bread, fruit, cereal, make your own waffles, pastries, and eggs. I wish there was a meat like ham or sausage with meal but their eggs were like a mini omelet with some southwest type fillings and toppings on the side. Checkout was good, had to wait a little so made more coffee while clerk checked in a new guest. Overall I would stay here again and recommend this Best Western Plus.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2016</t>
+  </si>
+  <si>
+    <t>Do to overnight drive we arrived at Best Western Plus before noon. Very friendly desk clerk immediately checked with housekeeping and found an available room with two queen beds. When we got to room found a very clean, neat and very well decorated room. The neatness and look also were prevalent throughout the hotel. Room had a nice flat screen TV connected to Direct TV, bathroom had normal soap, shampoo, etc. Only drawback was temperature of bath water, while very warm it was not conducive to taking a hot bath if desired. The free breakfast was good serve yourself with bread, fruit, cereal, make your own waffles, pastries, and eggs. I wish there was a meat like ham or sausage with meal but their eggs were like a mini omelet with some southwest type fillings and toppings on the side. Checkout was good, had to wait a little so made more coffee while clerk checked in a new guest. Overall I would stay here again and recommend this Best Western Plus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r379546966-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>379546966</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>A wonderful property!</t>
+  </si>
+  <si>
+    <t>This is a beautiful property with a great location.  Close to I45 and great restaurants.  The staff is very accomodating and go out of their way to please.  I would definitely refer this hotel to  out of town guest.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a beautiful property with a great location.  Close to I45 and great restaurants.  The staff is very accomodating and go out of their way to please.  I would definitely refer this hotel to  out of town guest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r379268061-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>379268061</t>
+  </si>
+  <si>
+    <t>Great stay.</t>
+  </si>
+  <si>
+    <t>This property is basically new. Great beds very well rested. Room was spacious  and clean. Love the door locks first time using them and excellent. Right off the highway easy to find. Breakfast was good but on my last stay no orange juice:(. Staff was friendly and very helpful. Over all experience great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>This property is basically new. Great beds very well rested. Room was spacious  and clean. Love the door locks first time using them and excellent. Right off the highway easy to find. Breakfast was good but on my last stay no orange juice:(. Staff was friendly and very helpful. Over all experience great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r375495761-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>375495761</t>
+  </si>
+  <si>
+    <t>05/22/2016</t>
+  </si>
+  <si>
+    <t>Convenient To Interstate, Restaurants and Shopping</t>
+  </si>
+  <si>
+    <t>This hotel is convenient to I-45, easy-on/easy off, as well as restaurants and shopping. We were warmly greeted by the Front Desk staff and assigned a room; however, there was no TV signal.  Veronica, who was courteous and professional, was unable to fix it, so she immediately helped us move to another room.  The rooms are well appointed – roomy – bed very comfortable – quiet – plenty of parking.  The breakfast buffet was adequate, including omelets, sausage, dry cereal, waffles, yogurt, etc. Coffee is available 24/7.  We enjoyed our  three night stay and would return.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is convenient to I-45, easy-on/easy off, as well as restaurants and shopping. We were warmly greeted by the Front Desk staff and assigned a room; however, there was no TV signal.  Veronica, who was courteous and professional, was unable to fix it, so she immediately helped us move to another room.  The rooms are well appointed – roomy – bed very comfortable – quiet – plenty of parking.  The breakfast buffet was adequate, including omelets, sausage, dry cereal, waffles, yogurt, etc. Coffee is available 24/7.  We enjoyed our  three night stay and would return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r375009769-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>375009769</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t>No Cleaning, slow to respond</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel 3 nights, our room was only semi cleaned once during our stay. No Management staff working on the weekends so if you have a problem that needs a decision you have to wait for a week day. Very poor response when we got back to the room and 8:00 pm and it had not been cleaned even though we left at 10:00 am and were gone all day. The desk help at night verified the room had note been cleaned but was not help in resolving the situation.. Back to Holiday Inn Express next time. Best Western Plus you had your chance but blew it.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel 3 nights, our room was only semi cleaned once during our stay. No Management staff working on the weekends so if you have a problem that needs a decision you have to wait for a week day. Very poor response when we got back to the room and 8:00 pm and it had not been cleaned even though we left at 10:00 am and were gone all day. The desk help at night verified the room had note been cleaned but was not help in resolving the situation.. Back to Holiday Inn Express next time. Best Western Plus you had your chance but blew it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r374720625-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>374720625</t>
+  </si>
+  <si>
+    <t>05/19/2016</t>
+  </si>
+  <si>
+    <t>Ms</t>
+  </si>
+  <si>
+    <t>Staff very helpful, quick check in/out, accommodating with early/late check out, quiet, clean. Beds comfortable. Pool was a little small but clean and there were enough lounge chairs in outdoor area. Only improvement would be to have some shade in pool area.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Staff very helpful, quick check in/out, accommodating with early/late check out, quiet, clean. Beds comfortable. Pool was a little small but clean and there were enough lounge chairs in outdoor area. Only improvement would be to have some shade in pool area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r370394013-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>370394013</t>
+  </si>
+  <si>
+    <t>05/05/2016</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>My mother and I stayed here while attending the funeral of a long-time family friend. The front desk and staff were great. This is a new hotel, so the rooms were really nice.... The breakfast was okay....2 days of breakfast burritos, even with different fillings was not my favorite....but, I would definitely stay here again....MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>My mother and I stayed here while attending the funeral of a long-time family friend. The front desk and staff were great. This is a new hotel, so the rooms were really nice.... The breakfast was okay....2 days of breakfast burritos, even with different fillings was not my favorite....but, I would definitely stay here again....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r368348794-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>368348794</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Superb Hotel</t>
+  </si>
+  <si>
+    <t>The hotel was extremely clean and well taken care of. Additionally, the hotel staff was professional and always had a welcoming smile. You certainly get more than what you pay for. The hotel grounds were very clean and the hotel is located in a very safe location. I would definitely stay at this location again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>The hotel was extremely clean and well taken care of. Additionally, the hotel staff was professional and always had a welcoming smile. You certainly get more than what you pay for. The hotel grounds were very clean and the hotel is located in a very safe location. I would definitely stay at this location again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r364057856-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>364057856</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>New and Clean</t>
+  </si>
+  <si>
+    <t>New and Clean hotel.  Had a suite, It was a great value. typical breakfast... nothing special, but adequate. Nice, small pool.  Right off I45 and close to shopping and fast food.  I would stay again if I was in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded April 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2016</t>
+  </si>
+  <si>
+    <t>New and Clean hotel.  Had a suite, It was a great value. typical breakfast... nothing special, but adequate. Nice, small pool.  Right off I45 and close to shopping and fast food.  I would stay again if I was in the areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r359944654-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>359944654</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>New hotel, comfy beds, stayed for about two weeks in Jan and went back to same place for 4 days in March. Good location for north side of Houston or Bush Airport. Check out Old Spring town nearby if you have some free time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>New hotel, comfy beds, stayed for about two weeks in Jan and went back to same place for 4 days in March. Good location for north side of Houston or Bush Airport. Check out Old Spring town nearby if you have some free time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r359944542-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>359944542</t>
+  </si>
+  <si>
+    <t>Visiting with grandchildren</t>
+  </si>
+  <si>
+    <t>This is a new hotel, easy access to I-45, friendly management and staff. The little granddaughters slept over with us and when I offered to pay extra those three nights, the offer was declined.The same with extra for breakfast.  Nowadays security is a big issue. This hotel sets in an area by itself, in a shopping community. We never felt like we had to be careful in the parking lot or inside.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new hotel, easy access to I-45, friendly management and staff. The little granddaughters slept over with us and when I offered to pay extra those three nights, the offer was declined.The same with extra for breakfast.  Nowadays security is a big issue. This hotel sets in an area by itself, in a shopping community. We never felt like we had to be careful in the parking lot or inside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r359218040-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>359218040</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Excellent place to stay</t>
+  </si>
+  <si>
+    <t>This hotel is one of the best Best Westerns we have stayed in in a long time.  Great staff, delicious breakfast and outstanding room.  We would definitely go back to Spring, Texas and stay at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded March 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2016</t>
+  </si>
+  <si>
+    <t>This hotel is one of the best Best Westerns we have stayed in in a long time.  Great staff, delicious breakfast and outstanding room.  We would definitely go back to Spring, Texas and stay at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r353815723-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>353815723</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Location, location, location.</t>
+  </si>
+  <si>
+    <t>We checked in around 7:30pm on the Friday we arrived and it was quick and easy.  Veronica and Howard greeted me right away and although they were tending to another customer on the phone, they informed me that they would be right with me.  I was surprised since I'm used to being ignored by those who can't/won't multitask.  They were both very friendly and welcoming...I knew I'd picked the right place.  Our room was at the end of the hall closest to the street but the outside noise was not too bad.  The hotel halls themselves were very quiet and clean.  I made a mistake in my booking and inadvertently booked a room without a pull out couch.  I called down to see if we could be moved or get a cot but we were unable to.  The pull out was for two 6 years olds, so Veronica gave us extra blankets and sheets and with that we made a slumber party type bed for the girls and they were happy...no biggie.  The reason I mention is that if you, like me, make your reservation through a 3rd party any changes you need made need to be done at the time of check-in, not after.  Reason being is that the hotel cannot give you the price that the 3rd party did, so in essence you are going to have to pay the difference.  Anyhow, that is my 2 cents...or so...We checked in around 7:30pm on the Friday we arrived and it was quick and easy.  Veronica and Howard greeted me right away and although they were tending to another customer on the phone, they informed me that they would be right with me.  I was surprised since I'm used to being ignored by those who can't/won't multitask.  They were both very friendly and welcoming...I knew I'd picked the right place.  Our room was at the end of the hall closest to the street but the outside noise was not too bad.  The hotel halls themselves were very quiet and clean.  I made a mistake in my booking and inadvertently booked a room without a pull out couch.  I called down to see if we could be moved or get a cot but we were unable to.  The pull out was for two 6 years olds, so Veronica gave us extra blankets and sheets and with that we made a slumber party type bed for the girls and they were happy...no biggie.  The reason I mention is that if you, like me, make your reservation through a 3rd party any changes you need made need to be done at the time of check-in, not after.  Reason being is that the hotel cannot give you the price that the 3rd party did, so in essence you are going to have to pay the difference.  Anyhow, that is my 2 cents...or so how I understood it.  Either way, the mistake was mine, not theirs.  The hotel had continental breakfast but I did NOT have it.  I ate out local so I can rate it.  Overall the hotel is close to everything and is very clean and quiet.  I highly recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>We checked in around 7:30pm on the Friday we arrived and it was quick and easy.  Veronica and Howard greeted me right away and although they were tending to another customer on the phone, they informed me that they would be right with me.  I was surprised since I'm used to being ignored by those who can't/won't multitask.  They were both very friendly and welcoming...I knew I'd picked the right place.  Our room was at the end of the hall closest to the street but the outside noise was not too bad.  The hotel halls themselves were very quiet and clean.  I made a mistake in my booking and inadvertently booked a room without a pull out couch.  I called down to see if we could be moved or get a cot but we were unable to.  The pull out was for two 6 years olds, so Veronica gave us extra blankets and sheets and with that we made a slumber party type bed for the girls and they were happy...no biggie.  The reason I mention is that if you, like me, make your reservation through a 3rd party any changes you need made need to be done at the time of check-in, not after.  Reason being is that the hotel cannot give you the price that the 3rd party did, so in essence you are going to have to pay the difference.  Anyhow, that is my 2 cents...or so...We checked in around 7:30pm on the Friday we arrived and it was quick and easy.  Veronica and Howard greeted me right away and although they were tending to another customer on the phone, they informed me that they would be right with me.  I was surprised since I'm used to being ignored by those who can't/won't multitask.  They were both very friendly and welcoming...I knew I'd picked the right place.  Our room was at the end of the hall closest to the street but the outside noise was not too bad.  The hotel halls themselves were very quiet and clean.  I made a mistake in my booking and inadvertently booked a room without a pull out couch.  I called down to see if we could be moved or get a cot but we were unable to.  The pull out was for two 6 years olds, so Veronica gave us extra blankets and sheets and with that we made a slumber party type bed for the girls and they were happy...no biggie.  The reason I mention is that if you, like me, make your reservation through a 3rd party any changes you need made need to be done at the time of check-in, not after.  Reason being is that the hotel cannot give you the price that the 3rd party did, so in essence you are going to have to pay the difference.  Anyhow, that is my 2 cents...or so how I understood it.  Either way, the mistake was mine, not theirs.  The hotel had continental breakfast but I did NOT have it.  I ate out local so I can rate it.  Overall the hotel is close to everything and is very clean and quiet.  I highly recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r340855375-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>340855375</t>
+  </si>
+  <si>
+    <t>01/17/2016</t>
+  </si>
+  <si>
+    <t>Group trip stay</t>
+  </si>
+  <si>
+    <t>Good and friendly service.  Quick in and out with a decent breakfast. Onlly issue was the hot water was not as hot as it should have been.  Just a little warmer woudl be good.  I didn't even have to mix with cold water.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2016</t>
+  </si>
+  <si>
+    <t>Good and friendly service.  Quick in and out with a decent breakfast. Onlly issue was the hot water was not as hot as it should have been.  Just a little warmer woudl be good.  I didn't even have to mix with cold water.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r340110045-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>340110045</t>
+  </si>
+  <si>
+    <t>01/14/2016</t>
+  </si>
+  <si>
+    <t>Texas Friendly!</t>
+  </si>
+  <si>
+    <t>Yes, this facility is brand new, and we stayed there during its first month of business.  The staff and manager were very accommodating with our large family group that stayed there for several days.  Rashesh Patel, the manager, was especially helpful and from him right down to the breakfast attendants, we enjoyed friendly service all the way around.   The modern décor was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Yes, this facility is brand new, and we stayed there during its first month of business.  The staff and manager were very accommodating with our large family group that stayed there for several days.  Rashesh Patel, the manager, was especially helpful and from him right down to the breakfast attendants, we enjoyed friendly service all the way around.   The modern décor was very nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r336211469-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>336211469</t>
+  </si>
+  <si>
+    <t>12/10/2015</t>
+  </si>
+  <si>
+    <t>Shiny &amp; New</t>
+  </si>
+  <si>
+    <t>Hard to find any faults with this place since it is brand new. The staff was great and everything was nice and clean being brand new. It's located right off of I-45 and there are plenty of food options back across the highway. For a pleasant surprise the fitness center next door has a retaurant in it and serves a tasty burger.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r326147882-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>326147882</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>BRAND NEW -Clean - Eclectic - Modern</t>
+  </si>
+  <si>
+    <t>I booked this stay via my mobile app on the way to the Woodlands BW where I have stayed before since Spring Texas did not have a BW.  I was surprised to see this pop up.   I booked my stay here since my business meeting was in Spring the next morning. 
+Looked Brand New upon driving up - no sign on building yet - banner on street that says Now Open.   Pulled up, walked inside - and the woman was so excited to see me.  Kind of like when your mom sees you for the first time in months.  
+I said - little light on booking this afternoon (it was about 5pm)?  She said - we are just getting rolling - I you are our first guest this evening.   I thought that was cool....until
+I asked when did yall open?   Today she replies.    She said you are the first person ever to check into the hotel.   11/12/15
+As a Best Western Diamond Rewards member - I stay all over.  This is the nicest PLUS that I have stayed at.  It helps that it is new - but I met the Manager, the Owner, the Night Manager, and a couple of the housekeeping ladies and let me tell you - the people are are truly great, upbeat, exciting, and appear to enjoy being here - which lets just say...it hard to find out of many hotel staffs. 
+Props to the Best...I booked this stay via my mobile app on the way to the Woodlands BW where I have stayed before since Spring Texas did not have a BW.  I was surprised to see this pop up.   I booked my stay here since my business meeting was in Spring the next morning. Looked Brand New upon driving up - no sign on building yet - banner on street that says Now Open.   Pulled up, walked inside - and the woman was so excited to see me.  Kind of like when your mom sees you for the first time in months.  I said - little light on booking this afternoon (it was about 5pm)?  She said - we are just getting rolling - I you are our first guest this evening.   I thought that was cool....untilI asked when did yall open?   Today she replies.    She said you are the first person ever to check into the hotel.   11/12/15As a Best Western Diamond Rewards member - I stay all over.  This is the nicest PLUS that I have stayed at.  It helps that it is new - but I met the Manager, the Owner, the Night Manager, and a couple of the housekeeping ladies and let me tell you - the people are are truly great, upbeat, exciting, and appear to enjoy being here - which lets just say...it hard to find out of many hotel staffs. Props to the Best Western Spring Texas!  I will be back to the Houston area once per month - and will be staying here each time.  See yall again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded November 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2015</t>
+  </si>
+  <si>
+    <t>I booked this stay via my mobile app on the way to the Woodlands BW where I have stayed before since Spring Texas did not have a BW.  I was surprised to see this pop up.   I booked my stay here since my business meeting was in Spring the next morning. 
+Looked Brand New upon driving up - no sign on building yet - banner on street that says Now Open.   Pulled up, walked inside - and the woman was so excited to see me.  Kind of like when your mom sees you for the first time in months.  
+I said - little light on booking this afternoon (it was about 5pm)?  She said - we are just getting rolling - I you are our first guest this evening.   I thought that was cool....until
+I asked when did yall open?   Today she replies.    She said you are the first person ever to check into the hotel.   11/12/15
+As a Best Western Diamond Rewards member - I stay all over.  This is the nicest PLUS that I have stayed at.  It helps that it is new - but I met the Manager, the Owner, the Night Manager, and a couple of the housekeeping ladies and let me tell you - the people are are truly great, upbeat, exciting, and appear to enjoy being here - which lets just say...it hard to find out of many hotel staffs. 
+Props to the Best...I booked this stay via my mobile app on the way to the Woodlands BW where I have stayed before since Spring Texas did not have a BW.  I was surprised to see this pop up.   I booked my stay here since my business meeting was in Spring the next morning. Looked Brand New upon driving up - no sign on building yet - banner on street that says Now Open.   Pulled up, walked inside - and the woman was so excited to see me.  Kind of like when your mom sees you for the first time in months.  I said - little light on booking this afternoon (it was about 5pm)?  She said - we are just getting rolling - I you are our first guest this evening.   I thought that was cool....untilI asked when did yall open?   Today she replies.    She said you are the first person ever to check into the hotel.   11/12/15As a Best Western Diamond Rewards member - I stay all over.  This is the nicest PLUS that I have stayed at.  It helps that it is new - but I met the Manager, the Owner, the Night Manager, and a couple of the housekeeping ladies and let me tell you - the people are are truly great, upbeat, exciting, and appear to enjoy being here - which lets just say...it hard to find out of many hotel staffs. Props to the Best Western Spring Texas!  I will be back to the Houston area once per month - and will be staying here each time.  See yall again.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2102,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2134,4645 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>60</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>79</v>
+      </c>
+      <c r="X8" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>79</v>
+      </c>
+      <c r="X9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>116</v>
+      </c>
+      <c r="X10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+      <c r="J11" t="s">
+        <v>121</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>123</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>130</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>165</v>
+      </c>
+      <c r="X16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" t="s">
+        <v>172</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>164</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>173</v>
+      </c>
+      <c r="X17" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>109</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>182</v>
+      </c>
+      <c r="X18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>181</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>190</v>
+      </c>
+      <c r="X19" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J20" t="s">
+        <v>195</v>
+      </c>
+      <c r="K20" t="s">
+        <v>196</v>
+      </c>
+      <c r="L20" t="s">
+        <v>197</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+      <c r="O20" t="s">
+        <v>78</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>199</v>
+      </c>
+      <c r="X20" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>198</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>207</v>
+      </c>
+      <c r="X21" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" t="s">
+        <v>212</v>
+      </c>
+      <c r="K22" t="s">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>215</v>
+      </c>
+      <c r="X22" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>198</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>223</v>
+      </c>
+      <c r="X23" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>78</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" t="s">
+        <v>235</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>198</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>223</v>
+      </c>
+      <c r="X25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>238</v>
+      </c>
+      <c r="J26" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" t="s">
+        <v>240</v>
+      </c>
+      <c r="L26" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>242</v>
+      </c>
+      <c r="O26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>243</v>
+      </c>
+      <c r="X26" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>246</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" t="s">
+        <v>248</v>
+      </c>
+      <c r="K27" t="s">
+        <v>249</v>
+      </c>
+      <c r="L27" t="s">
+        <v>250</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>242</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>251</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>253</v>
+      </c>
+      <c r="L28" t="s">
+        <v>254</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" t="s">
+        <v>95</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>255</v>
+      </c>
+      <c r="X28" t="s">
+        <v>256</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>258</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>259</v>
+      </c>
+      <c r="J29" t="s">
+        <v>260</v>
+      </c>
+      <c r="K29" t="s">
+        <v>261</v>
+      </c>
+      <c r="L29" t="s">
+        <v>262</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>263</v>
+      </c>
+      <c r="X29" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>266</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>267</v>
+      </c>
+      <c r="J30" t="s">
+        <v>268</v>
+      </c>
+      <c r="K30" t="s">
+        <v>269</v>
+      </c>
+      <c r="L30" t="s">
+        <v>270</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>242</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>271</v>
+      </c>
+      <c r="X30" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s">
+        <v>278</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>279</v>
+      </c>
+      <c r="O31" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>280</v>
+      </c>
+      <c r="X31" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s">
+        <v>287</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>288</v>
+      </c>
+      <c r="O32" t="s">
+        <v>109</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" t="s">
+        <v>294</v>
+      </c>
+      <c r="K33" t="s">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>288</v>
+      </c>
+      <c r="O33" t="s">
+        <v>78</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>297</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>298</v>
+      </c>
+      <c r="J34" t="s">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>300</v>
+      </c>
+      <c r="L34" t="s">
+        <v>301</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>288</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>302</v>
+      </c>
+      <c r="X34" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>305</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J35" t="s">
+        <v>307</v>
+      </c>
+      <c r="K35" t="s">
+        <v>308</v>
+      </c>
+      <c r="L35" t="s">
+        <v>309</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>288</v>
+      </c>
+      <c r="O35" t="s">
+        <v>109</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>311</v>
+      </c>
+      <c r="J36" t="s">
+        <v>312</v>
+      </c>
+      <c r="K36" t="s">
+        <v>261</v>
+      </c>
+      <c r="L36" t="s">
+        <v>313</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>288</v>
+      </c>
+      <c r="O36" t="s">
+        <v>78</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>314</v>
+      </c>
+      <c r="X36" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" t="s">
+        <v>319</v>
+      </c>
+      <c r="K37" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>288</v>
+      </c>
+      <c r="O37" t="s">
+        <v>78</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>322</v>
+      </c>
+      <c r="X37" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>325</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>326</v>
+      </c>
+      <c r="J38" t="s">
+        <v>327</v>
+      </c>
+      <c r="K38" t="s">
+        <v>328</v>
+      </c>
+      <c r="L38" t="s">
+        <v>329</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>330</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>331</v>
+      </c>
+      <c r="X38" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>334</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" t="s">
+        <v>327</v>
+      </c>
+      <c r="K39" t="s">
+        <v>336</v>
+      </c>
+      <c r="L39" t="s">
+        <v>337</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>330</v>
+      </c>
+      <c r="O39" t="s">
+        <v>95</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>338</v>
+      </c>
+      <c r="X39" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>341</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>342</v>
+      </c>
+      <c r="J40" t="s">
+        <v>343</v>
+      </c>
+      <c r="K40" t="s">
+        <v>344</v>
+      </c>
+      <c r="L40" t="s">
+        <v>345</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>330</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>338</v>
+      </c>
+      <c r="X40" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>347</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>348</v>
+      </c>
+      <c r="J41" t="s">
+        <v>349</v>
+      </c>
+      <c r="K41" t="s">
+        <v>350</v>
+      </c>
+      <c r="L41" t="s">
+        <v>351</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>352</v>
+      </c>
+      <c r="O41" t="s">
+        <v>78</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>331</v>
+      </c>
+      <c r="X41" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>354</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>355</v>
+      </c>
+      <c r="J42" t="s">
+        <v>356</v>
+      </c>
+      <c r="K42" t="s">
+        <v>357</v>
+      </c>
+      <c r="L42" t="s">
+        <v>358</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>352</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>360</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>361</v>
+      </c>
+      <c r="J43" t="s">
+        <v>362</v>
+      </c>
+      <c r="K43" t="s">
+        <v>363</v>
+      </c>
+      <c r="L43" t="s">
+        <v>364</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>365</v>
+      </c>
+      <c r="O43" t="s">
+        <v>78</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>366</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>367</v>
+      </c>
+      <c r="J44" t="s">
+        <v>368</v>
+      </c>
+      <c r="K44" t="s">
+        <v>369</v>
+      </c>
+      <c r="L44" t="s">
+        <v>370</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>371</v>
+      </c>
+      <c r="O44" t="s">
+        <v>78</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>372</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>373</v>
+      </c>
+      <c r="J45" t="s">
+        <v>374</v>
+      </c>
+      <c r="K45" t="s">
+        <v>375</v>
+      </c>
+      <c r="L45" t="s">
+        <v>376</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>371</v>
+      </c>
+      <c r="O45" t="s">
+        <v>109</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>377</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>378</v>
+      </c>
+      <c r="J46" t="s">
+        <v>379</v>
+      </c>
+      <c r="K46" t="s">
+        <v>380</v>
+      </c>
+      <c r="L46" t="s">
+        <v>381</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>371</v>
+      </c>
+      <c r="O46" t="s">
+        <v>109</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>382</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>383</v>
+      </c>
+      <c r="J47" t="s">
+        <v>384</v>
+      </c>
+      <c r="K47" t="s">
+        <v>385</v>
+      </c>
+      <c r="L47" t="s">
+        <v>386</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>365</v>
+      </c>
+      <c r="O47" t="s">
+        <v>78</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>387</v>
+      </c>
+      <c r="X47" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>390</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>391</v>
+      </c>
+      <c r="J48" t="s">
+        <v>392</v>
+      </c>
+      <c r="K48" t="s">
+        <v>393</v>
+      </c>
+      <c r="L48" t="s">
+        <v>394</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>395</v>
+      </c>
+      <c r="O48" t="s">
+        <v>109</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>396</v>
+      </c>
+      <c r="X48" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>399</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>400</v>
+      </c>
+      <c r="J49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K49" t="s">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s">
+        <v>403</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>395</v>
+      </c>
+      <c r="O49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>404</v>
+      </c>
+      <c r="X49" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>407</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>408</v>
+      </c>
+      <c r="J50" t="s">
+        <v>409</v>
+      </c>
+      <c r="K50" t="s">
+        <v>410</v>
+      </c>
+      <c r="L50" t="s">
+        <v>411</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>412</v>
+      </c>
+      <c r="O50" t="s">
+        <v>78</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>413</v>
+      </c>
+      <c r="X50" t="s">
+        <v>414</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>416</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>417</v>
+      </c>
+      <c r="J51" t="s">
+        <v>418</v>
+      </c>
+      <c r="K51" t="s">
+        <v>419</v>
+      </c>
+      <c r="L51" t="s">
+        <v>420</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>421</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>422</v>
+      </c>
+      <c r="X51" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>425</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>426</v>
+      </c>
+      <c r="J52" t="s">
+        <v>427</v>
+      </c>
+      <c r="K52" t="s">
+        <v>428</v>
+      </c>
+      <c r="L52" t="s">
+        <v>429</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>421</v>
+      </c>
+      <c r="O52" t="s">
+        <v>78</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="s"/>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>430</v>
+      </c>
+      <c r="X52" t="s">
+        <v>431</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>433</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>434</v>
+      </c>
+      <c r="J53" t="s">
+        <v>435</v>
+      </c>
+      <c r="K53" t="s">
+        <v>436</v>
+      </c>
+      <c r="L53" t="s">
+        <v>437</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>421</v>
+      </c>
+      <c r="O53" t="s">
+        <v>78</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>438</v>
+      </c>
+      <c r="X53" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>441</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>442</v>
+      </c>
+      <c r="J54" t="s">
+        <v>443</v>
+      </c>
+      <c r="K54" t="s">
+        <v>444</v>
+      </c>
+      <c r="L54" t="s">
+        <v>445</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>421</v>
+      </c>
+      <c r="O54" t="s">
+        <v>78</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>438</v>
+      </c>
+      <c r="X54" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>447</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>448</v>
+      </c>
+      <c r="J55" t="s">
+        <v>443</v>
+      </c>
+      <c r="K55" t="s">
+        <v>449</v>
+      </c>
+      <c r="L55" t="s">
+        <v>450</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>451</v>
+      </c>
+      <c r="O55" t="s">
+        <v>78</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>438</v>
+      </c>
+      <c r="X55" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>453</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>454</v>
+      </c>
+      <c r="J56" t="s">
+        <v>455</v>
+      </c>
+      <c r="K56" t="s">
+        <v>456</v>
+      </c>
+      <c r="L56" t="s">
+        <v>457</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>451</v>
+      </c>
+      <c r="O56" t="s">
+        <v>109</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>458</v>
+      </c>
+      <c r="X56" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>461</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>462</v>
+      </c>
+      <c r="J57" t="s">
+        <v>463</v>
+      </c>
+      <c r="K57" t="s">
+        <v>464</v>
+      </c>
+      <c r="L57" t="s">
+        <v>465</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>451</v>
+      </c>
+      <c r="O57" t="s">
+        <v>78</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>467</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>468</v>
+      </c>
+      <c r="J58" t="s">
+        <v>469</v>
+      </c>
+      <c r="K58" t="s">
+        <v>470</v>
+      </c>
+      <c r="L58" t="s">
+        <v>471</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>451</v>
+      </c>
+      <c r="O58" t="s">
+        <v>78</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>472</v>
+      </c>
+      <c r="X58" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>475</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>476</v>
+      </c>
+      <c r="J59" t="s">
+        <v>477</v>
+      </c>
+      <c r="K59" t="s">
+        <v>478</v>
+      </c>
+      <c r="L59" t="s">
+        <v>479</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>451</v>
+      </c>
+      <c r="O59" t="s">
+        <v>78</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>480</v>
+      </c>
+      <c r="X59" t="s">
+        <v>481</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>483</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>484</v>
+      </c>
+      <c r="J60" t="s">
+        <v>485</v>
+      </c>
+      <c r="K60" t="s">
+        <v>486</v>
+      </c>
+      <c r="L60" t="s">
+        <v>487</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>488</v>
+      </c>
+      <c r="O60" t="s">
+        <v>78</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>489</v>
+      </c>
+      <c r="X60" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>492</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>493</v>
+      </c>
+      <c r="J61" t="s">
+        <v>494</v>
+      </c>
+      <c r="K61" t="s">
+        <v>495</v>
+      </c>
+      <c r="L61" t="s">
+        <v>496</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>488</v>
+      </c>
+      <c r="O61" t="s">
+        <v>109</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>497</v>
+      </c>
+      <c r="X61" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>500</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>501</v>
+      </c>
+      <c r="J62" t="s">
+        <v>502</v>
+      </c>
+      <c r="K62" t="s">
+        <v>503</v>
+      </c>
+      <c r="L62" t="s">
+        <v>504</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>505</v>
+      </c>
+      <c r="O62" t="s">
+        <v>78</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>506</v>
+      </c>
+      <c r="X62" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>509</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>510</v>
+      </c>
+      <c r="J63" t="s">
+        <v>502</v>
+      </c>
+      <c r="K63" t="s">
+        <v>511</v>
+      </c>
+      <c r="L63" t="s">
+        <v>512</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>505</v>
+      </c>
+      <c r="O63" t="s">
+        <v>78</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>506</v>
+      </c>
+      <c r="X63" t="s">
+        <v>507</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>514</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>515</v>
+      </c>
+      <c r="J64" t="s">
+        <v>516</v>
+      </c>
+      <c r="K64" t="s">
+        <v>517</v>
+      </c>
+      <c r="L64" t="s">
+        <v>518</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>505</v>
+      </c>
+      <c r="O64" t="s">
+        <v>109</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>519</v>
+      </c>
+      <c r="X64" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>522</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>523</v>
+      </c>
+      <c r="J65" t="s">
+        <v>524</v>
+      </c>
+      <c r="K65" t="s">
+        <v>525</v>
+      </c>
+      <c r="L65" t="s">
+        <v>526</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>527</v>
+      </c>
+      <c r="O65" t="s">
+        <v>78</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>528</v>
+      </c>
+      <c r="X65" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>531</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>532</v>
+      </c>
+      <c r="J66" t="s">
+        <v>533</v>
+      </c>
+      <c r="K66" t="s">
+        <v>534</v>
+      </c>
+      <c r="L66" t="s">
+        <v>535</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>536</v>
+      </c>
+      <c r="O66" t="s">
+        <v>60</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>537</v>
+      </c>
+      <c r="X66" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>540</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>541</v>
+      </c>
+      <c r="J67" t="s">
+        <v>542</v>
+      </c>
+      <c r="K67" t="s">
+        <v>543</v>
+      </c>
+      <c r="L67" t="s">
+        <v>544</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>536</v>
+      </c>
+      <c r="O67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>537</v>
+      </c>
+      <c r="X67" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>546</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>547</v>
+      </c>
+      <c r="J68" t="s">
+        <v>548</v>
+      </c>
+      <c r="K68" t="s">
+        <v>549</v>
+      </c>
+      <c r="L68" t="s">
+        <v>550</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>551</v>
+      </c>
+      <c r="O68" t="s">
+        <v>60</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>552</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>553</v>
+      </c>
+      <c r="J69" t="s">
+        <v>554</v>
+      </c>
+      <c r="K69" t="s">
+        <v>555</v>
+      </c>
+      <c r="L69" t="s">
+        <v>556</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>557</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>558</v>
+      </c>
+      <c r="X69" t="s">
+        <v>559</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_53.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_53.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="898">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,93 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r609711902-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>56701</t>
+  </si>
+  <si>
+    <t>8722633</t>
+  </si>
+  <si>
+    <t>609711902</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t>We will never stay at this hotel again. Front desk staff very rude. Ants in room. Sticky floor in bathroom. Bad check experience. Got there a little early after a 4 1/2 hour drive... greeted in a rude manner. Had to beg to even stay in the lobby while waiting for a clean room. I could go on!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>We will never stay at this hotel again. Front desk staff very rude. Ants in room. Sticky floor in bathroom. Bad check experience. Got there a little early after a 4 1/2 hour drive... greeted in a rude manner. Had to beg to even stay in the lobby while waiting for a clean room. I could go on!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r602406471-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>602406471</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Wonderful Stay</t>
+  </si>
+  <si>
+    <t>This was my second extended stay at this location. The staff is great and made sure that the guest room and common areas were always clean. You could not ask for a better location being right off the North Freeway and near many Restaurants and other attractions. I look forward to visiting this hotel on my next trip to Houston. MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>This was my second extended stay at this location. The staff is great and made sure that the guest room and common areas were always clean. You could not ask for a better location being right off the North Freeway and near many Restaurants and other attractions. I look forward to visiting this hotel on my next trip to Houston. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r597452218-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>597452218</t>
+  </si>
+  <si>
+    <t>07/18/2018</t>
+  </si>
+  <si>
+    <t>Leisure Travel</t>
+  </si>
+  <si>
+    <t>Very clean, well priced, conviently located hotel.  Access to 45 and restaurants.  Bed was comfortable.  Desk staff was very friendly. I would stay here on a return visit to family in Spring (or Houston area), Texas.  MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Very clean, well priced, conviently located hotel.  Access to 45 and restaurants.  Bed was comfortable.  Desk staff was very friendly. I would stay here on a return visit to family in Spring (or Houston area), Texas.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r596384992-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
-    <t>56701</t>
-  </si>
-  <si>
-    <t>8722633</t>
-  </si>
-  <si>
     <t>596384992</t>
   </si>
   <si>
@@ -174,9 +249,6 @@
     <t xml:space="preserve">When my air conditioner was on the blink, I took refuge in my local Best Western. I had a very positive experience. The hotel was extremely clean and the staff was great. This hotel is ideally situated for families traveling to the area. It is located next to Splashtown and it is close to shopping and restaurants. </t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
@@ -201,10 +273,10 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded 5 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 5 weeks ago</t>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded July 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2018</t>
   </si>
   <si>
     <t>The staff was fabulous and I would rate them as a 10 . Especially Kimberley at the front desk . I have stayed there many times and consider the hotel as my hotel of choice in Houston . I stayed 5 nights on my recent trip. Upon preparing for my checkout on June 29th I had some final business to do prior to leaving . I called the front desk and requested a late checkout not to exceed 1 pm . Upon leaving the hotel I stopped by the front desk and confirmed that the late checkout was ok . Sarika said that would be fine . About 11 am my phone went crazy with text and calls from my wife . She is deaf and the manager ( Patel ) was calling telling her she must vacate the room . If I wasn’t back by 12 pm she would have to put all our luggage on the cart and come down and wait for me in the Lobby . This really scared her since she is handicap as well as English not being her primary language . She is a LEGAL IMMIGRANT ! Then cell phone began ringing from calls from the hotel manager. I was in a business meeting and had to leave my meeting to drink back 20 miles to pick up my wife by 12 pm . I arrived back there at 11:55 am and hurriedly...The staff was fabulous and I would rate them as a 10 . Especially Kimberley at the front desk . I have stayed there many times and consider the hotel as my hotel of choice in Houston . I stayed 5 nights on my recent trip. Upon preparing for my checkout on June 29th I had some final business to do prior to leaving . I called the front desk and requested a late checkout not to exceed 1 pm . Upon leaving the hotel I stopped by the front desk and confirmed that the late checkout was ok . Sarika said that would be fine . About 11 am my phone went crazy with text and calls from my wife . She is deaf and the manager ( Patel ) was calling telling her she must vacate the room . If I wasn’t back by 12 pm she would have to put all our luggage on the cart and come down and wait for me in the Lobby . This really scared her since she is handicap as well as English not being her primary language . She is a LEGAL IMMIGRANT ! Then cell phone began ringing from calls from the hotel manager. I was in a business meeting and had to leave my meeting to drink back 20 miles to pick up my wife by 12 pm . I arrived back there at 11:55 am and hurriedly picked up my wife , but prior to leaving I had a very heated conversation the Patel the so called manager . I told him the front desk clerk approved my checkout which he denied . I try to follow protocol , which I did , but when the AH called me a liar we almost had an event . But a piece of s___ like that AH isn’t worth it . I stay in at least 100 plus nights a year in hotels and have been traveling for 50 years   and never  had an event like this one . As I said the staff is a 10 on 10 , but this AH is below a ZERO ! More</t>
@@ -234,6 +306,48 @@
     <t>BestWestern,353 Louetta Rd,Spring,TX- clean,comfortable,friendly staff.Free breakfast-usual fare economy hotels,reconstituted eggs/sausage/generous carbs. Do not book with Reservation Counter, Inc., which uses bait &amp; switch tactics. Offered suite in large print, confirmed 2QB regular room. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r584296188-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>584296188</t>
+  </si>
+  <si>
+    <t>Horrible Customer Service</t>
+  </si>
+  <si>
+    <t>This may be the worst hotel experience I've had regarding customer service. Front desk personnel ignore the phones ringing. I left a message regarding a receipt for my stay and the message was never returned. Hotel refused to give a receipt for a stay because "the company pays for your room, the rate is private." So even though I am the business traveler, and need a receipt for expenses, the hotel staff REFUSED to provide a receipt. This place is a joke...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>This may be the worst hotel experience I've had regarding customer service. Front desk personnel ignore the phones ringing. I left a message regarding a receipt for my stay and the message was never returned. Hotel refused to give a receipt for a stay because "the company pays for your room, the rate is private." So even though I am the business traveler, and need a receipt for expenses, the hotel staff REFUSED to provide a receipt. This place is a joke...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r583705013-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>583705013</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>I found the location perfect while I was searching for home in North Houston, clean rooms, friendly staff!</t>
+  </si>
+  <si>
+    <t>Best part of my stay had to be the exceptional service I received from the front-desk associates, in particular a young woman named Jaimee.  She helped me deal with computer questions I had at the business center, provided me with guidance on where other resources in town were (had  to do a lot to get a home application in) and just overall went "above and beyond".  Great job!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Best part of my stay had to be the exceptional service I received from the front-desk associates, in particular a young woman named Jaimee.  She helped me deal with computer questions I had at the business center, provided me with guidance on where other resources in town were (had  to do a lot to get a home application in) and just overall went "above and beyond".  Great job!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r582200176-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -249,12 +363,6 @@
     <t>My disable and elder Uncle stayed there one night. He was well looked after and front desk showed a high level of humanity. It’s very nice to see that this Hôtel has staff with kind hearts. Thank you,Jennifer EMoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 24, 2018</t>
   </si>
   <si>
@@ -309,6 +417,47 @@
     <t>We were in town for a one-day seminar. We were able to get a late check-in which was great. Kimberly, the night check in person, was wonderful! Courteous and fun personality! And when we were checking out and packing the car, the groundskeeper said to us,  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r573493912-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>573493912</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>HORRIBLE, PREJUDICES</t>
+  </si>
+  <si>
+    <t>You have very rude and uncaring of their job people on ur front desk. My bathroom had a sticky floor and towels that were dingy and look like they had been rung out in dirty water,,,not white and crisp. Your night auditor, while sitting there in the dark with the lights out, acted like she wanted to fight when I told her there better not be a extra charge on my card, because of an issue I had, with having to sign a debit card charge that I hadn't been asked to sign before.  Then she yelled out as I was walking out the door MoreShow less</t>
+  </si>
+  <si>
+    <t>You have very rude and uncaring of their job people on ur front desk. My bathroom had a sticky floor and towels that were dingy and look like they had been rung out in dirty water,,,not white and crisp. Your night auditor, while sitting there in the dark with the lights out, acted like she wanted to fight when I told her there better not be a extra charge on my card, because of an issue I had, with having to sign a debit card charge that I hadn't been asked to sign before.  Then she yelled out as I was walking out the door More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r570637105-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>570637105</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Terrible experience</t>
+  </si>
+  <si>
+    <t>We stayed here late Jan. 16, the night of the ice storm.  We were told it was the last room and did not have a working TV.  No problem--it was late10:30 and we had a very early flight the next morning.  When we went to the room we found it completely uncleaned from the previous clients who had left it a mess, food everywhere and beds unmade.  The front desk told us it would take an hour and a half to clean it--it was not going to happen since they could not leave the front desk.  We called for a taxi to take us to another hotel.  That night there were none to be had.  We waited an hour.  Finally we asked for sheets and towels and said we would clean and  make up the room.  They only showed concern when I said this would be fully reported on Trip Advisor.  Thr three of us then made up the beds and cleaned the rooms in about a half hour.  They told me apologetically they could reduce the charge to $90 but only the (unavailable) manager could comp the room.  He left a message the next day that the room was comped but later on we were billed the full amount.  When I called him he was very rude, said it never happened, and shouted at me whenever I spoke.  I asked him to stop and listen--did not
+happen.  If you...We stayed here late Jan. 16, the night of the ice storm.  We were told it was the last room and did not have a working TV.  No problem--it was late10:30 and we had a very early flight the next morning.  When we went to the room we found it completely uncleaned from the previous clients who had left it a mess, food everywhere and beds unmade.  The front desk told us it would take an hour and a half to clean it--it was not going to happen since they could not leave the front desk.  We called for a taxi to take us to another hotel.  That night there were none to be had.  We waited an hour.  Finally we asked for sheets and towels and said we would clean and  make up the room.  They only showed concern when I said this would be fully reported on Trip Advisor.  Thr three of us then made up the beds and cleaned the rooms in about a half hour.  They told me apologetically they could reduce the charge to $90 but only the (unavailable) manager could comp the room.  He left a message the next day that the room was comped but later on we were billed the full amount.  When I called him he was very rude, said it never happened, and shouted at me whenever I spoke.  I asked him to stop and listen--did nothappen.  If you go here and have a problem, caveat emptor.  Better still--AVOID!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>We stayed here late Jan. 16, the night of the ice storm.  We were told it was the last room and did not have a working TV.  No problem--it was late10:30 and we had a very early flight the next morning.  When we went to the room we found it completely uncleaned from the previous clients who had left it a mess, food everywhere and beds unmade.  The front desk told us it would take an hour and a half to clean it--it was not going to happen since they could not leave the front desk.  We called for a taxi to take us to another hotel.  That night there were none to be had.  We waited an hour.  Finally we asked for sheets and towels and said we would clean and  make up the room.  They only showed concern when I said this would be fully reported on Trip Advisor.  Thr three of us then made up the beds and cleaned the rooms in about a half hour.  They told me apologetically they could reduce the charge to $90 but only the (unavailable) manager could comp the room.  He left a message the next day that the room was comped but later on we were billed the full amount.  When I called him he was very rude, said it never happened, and shouted at me whenever I spoke.  I asked him to stop and listen--did not
+happen.  If you...We stayed here late Jan. 16, the night of the ice storm.  We were told it was the last room and did not have a working TV.  No problem--it was late10:30 and we had a very early flight the next morning.  When we went to the room we found it completely uncleaned from the previous clients who had left it a mess, food everywhere and beds unmade.  The front desk told us it would take an hour and a half to clean it--it was not going to happen since they could not leave the front desk.  We called for a taxi to take us to another hotel.  That night there were none to be had.  We waited an hour.  Finally we asked for sheets and towels and said we would clean and  make up the room.  They only showed concern when I said this would be fully reported on Trip Advisor.  Thr three of us then made up the beds and cleaned the rooms in about a half hour.  They told me apologetically they could reduce the charge to $90 but only the (unavailable) manager could comp the room.  He left a message the next day that the room was comped but later on we were billed the full amount.  When I called him he was very rude, said it never happened, and shouted at me whenever I spoke.  I asked him to stop and listen--did nothappen.  If you go here and have a problem, caveat emptor.  Better still--AVOID!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r569562534-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -375,6 +524,48 @@
     <t>This hotel was easy to find and about an hour and a half from the Galveston pier.   Check in was fast and friendly. The room was on the bottom level and was very noisy from  5he doors slamming above us. It settled down after 10:30 so we could sleep.  Breakfast was fake eggs and biscuits and awful sausage. We were aware of this before we booked, so we had fruit and yogurt and coffee.   Good place to spend the night and Cheddars is just down the road.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r549768837-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>549768837</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Very nice facility.</t>
+  </si>
+  <si>
+    <t>The facility was nice and in a good location. Several food and shopping areas near by. The rooms were clean and the staff very nice. Had a little hic-up during check in but it was corrected by the next morning. Highly recommend this facility. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded January 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2018</t>
+  </si>
+  <si>
+    <t>The facility was nice and in a good location. Several food and shopping areas near by. The rooms were clean and the staff very nice. Had a little hic-up during check in but it was corrected by the next morning. Highly recommend this facility. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r549139972-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>549139972</t>
+  </si>
+  <si>
+    <t>12/25/2017</t>
+  </si>
+  <si>
+    <t>Rude. Rude. Rude.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clerk who checked us in was very rude and acted like we interrupted her day when we came to check in. She was rude every time we saw her. Had an attitude when we asked for extra shampoo.  Not the best thing to pinch pennies on.  Breakfast was nearly inedible. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r546325404-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -390,9 +581,6 @@
     <t>We have stayed here before. The staff is friendly. The rooms are nice, clean and roomy. The breakfast was good for hotel food. the food was fresh, and well presented. We will stay here again if in the area.</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r543940649-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -447,6 +635,48 @@
     <t>I stay here every visit to Houston. Location is perfect for easy access to Interstate 45 and is located close to The Woodlands and Old Town Spring. Very professional staff; really nice rooms; breakfast is great. Love the decor of the lobby and breakfast room.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r539295881-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>539295881</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>My room had bed bugs. I alerted the front desk to the issue with physical proof as well as pictures and nothing was done. I had to sleep on the couch for 4 of my 6 nights there. I  was not offered a new room or anything. I am highly dissapointed with BEST WESTERN. ON TOP of everything I did not recieve any reward points or any type of compensation or even a sorry.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded November 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2017</t>
+  </si>
+  <si>
+    <t>My room had bed bugs. I alerted the front desk to the issue with physical proof as well as pictures and nothing was done. I had to sleep on the couch for 4 of my 6 nights there. I  was not offered a new room or anything. I am highly dissapointed with BEST WESTERN. ON TOP of everything I did not recieve any reward points or any type of compensation or even a sorry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r538983719-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>538983719</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Amazing Staff</t>
+  </si>
+  <si>
+    <t>The "New Best Western" Hotel chains have done a great job with revamping the hotels and the staff has always been the best! Breakfast is always good, Coffee is always there! The General Manager at this location even gave me a belt when I lost mine! Above and beyond serviceMoreShow less</t>
+  </si>
+  <si>
+    <t>The "New Best Western" Hotel chains have done a great job with revamping the hotels and the staff has always been the best! Breakfast is always good, Coffee is always there! The General Manager at this location even gave me a belt when I lost mine! Above and beyond serviceMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r535653664-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -462,12 +692,6 @@
     <t>not the best best western I have stayed at , I had ants in my room and my kid had shoes come up missing and my bed was made with a filthy dirty sheet. restocking on items was limited to none when house keeping cameMoreShow less</t>
   </si>
   <si>
-    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded November 8, 2017</t>
-  </si>
-  <si>
-    <t>Responded November 8, 2017</t>
-  </si>
-  <si>
     <t>not the best best western I have stayed at , I had ants in my room and my kid had shoes come up missing and my bed was made with a filthy dirty sheet. restocking on items was limited to none when house keeping cameMore</t>
   </si>
   <si>
@@ -522,6 +746,54 @@
     <t>During Hurricane Harvey we lost power for 5 days and this place was wonderful! Great breakfast, super clean and we had a kitchen which helped us save some of our food. I will stay here again!!! Housekeeping was wonderful when we ran out of towels they made sure they brought some fresh and just smiles everywhere.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r521227575-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>521227575</t>
+  </si>
+  <si>
+    <t>09/04/2017</t>
+  </si>
+  <si>
+    <t>This site was taking advantage of Hurricane Harvey victims</t>
+  </si>
+  <si>
+    <t>We had over 6 feet of water in our house and had to leave. We book 7 days at this Best Western because we didn't know how long it would take for the water to recede to be able to find a new place to stay. On the 4th day, we had a place we could stay at long term while our house was rebuilt. We asked if we could check out early and they said since we had paid in full, they could not give us back any money if we were to leave early. Please make sure you protect yourself when dealing with this business. MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded September 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2017</t>
+  </si>
+  <si>
+    <t>We had over 6 feet of water in our house and had to leave. We book 7 days at this Best Western because we didn't know how long it would take for the water to recede to be able to find a new place to stay. On the 4th day, we had a place we could stay at long term while our house was rebuilt. We asked if we could check out early and they said since we had paid in full, they could not give us back any money if we were to leave early. Please make sure you protect yourself when dealing with this business. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r516638454-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>516638454</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Very clean and comfortable hotel</t>
+  </si>
+  <si>
+    <t>Needed to stay with my family last minute and glad we choose this hotel. Was very clean and comfortable.  New to area and will definitely have friends and family stay there when they come to visit us. Nice experienceMoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2017</t>
+  </si>
+  <si>
+    <t>Needed to stay with my family last minute and glad we choose this hotel. Was very clean and comfortable.  New to area and will definitely have friends and family stay there when they come to visit us. Nice experienceMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r511023012-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -597,6 +869,57 @@
     <t>quite relaxing time with the kids. great locate due to the water park is next door had a great view of the water just out my hotel window, thanks so much for your great hospitality and service, will seenyou very soon for my next get-a-way.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r498440712-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>498440712</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Great stay in Spring Texas to be with family.</t>
+  </si>
+  <si>
+    <t>We planned a trip to Spring Texas to see family and this hotel fit the ticket.  The room was comfortable and relaxing.  The pool was great and they even had towels at the pool, we didn't have to ask at the desk for them.  My family enjoyed the pool and would have loved to stay another day.  Breakfast was great the the desk clerk in the morning of our check out was wonderful.  We will definitely stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>We planned a trip to Spring Texas to see family and this hotel fit the ticket.  The room was comfortable and relaxing.  The pool was great and they even had towels at the pool, we didn't have to ask at the desk for them.  My family enjoyed the pool and would have loved to stay another day.  Breakfast was great the the desk clerk in the morning of our check out was wonderful.  We will definitely stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r496914412-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>496914412</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Great place, friendly staff</t>
+  </si>
+  <si>
+    <t>This was our first time staying here and will definitely stay again! We felt welcome from the minute we walked in. The staff was great, the rooms were clean and had all the amenities, and the free breakfast was more than expected with lots of choices both hot and cold.  Definitely a great value!MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>This was our first time staying here and will definitely stay again! We felt welcome from the minute we walked in. The staff was great, the rooms were clean and had all the amenities, and the free breakfast was more than expected with lots of choices both hot and cold.  Definitely a great value!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r496176718-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -612,9 +935,6 @@
     <t>My family, 7 adults and 4 children flew in to Houston for my niece's wedding.  Check in was quick and easy,  breakfast was great and rooms very clean!  The beds were extremely comfortable.  Location was another nice factor!MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 27, 2017</t>
   </si>
   <si>
@@ -672,6 +992,54 @@
     <t>We went without a working television the first day. Our television problem was not fixed until after ten p.m.  The second night and the next morning there were no clean bath linen. We were told that we had to supply our own because the hotel was full to capacity.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r494108324-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>494108324</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel.  It is very clean, and the staff were very friendly.  The beds are comfortable, and overall our stay was very good.  My only critique is with the breakfast.  If you stay more than one night (we stayed five nights as we were visiting family), the variety leaves something to be desired.  The eggs varied between little preshaped rectangles or omelet shapes with some kind of filling already in them.  I think regular scrambled eggs would be a bit more palatable.  They do have a nice pancake machine.  The pool is nice.  I also used the guest laundry, which was very clean and nice.  I would definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>This is a fairly new hotel.  It is very clean, and the staff were very friendly.  The beds are comfortable, and overall our stay was very good.  My only critique is with the breakfast.  If you stay more than one night (we stayed five nights as we were visiting family), the variety leaves something to be desired.  The eggs varied between little preshaped rectangles or omelet shapes with some kind of filling already in them.  I think regular scrambled eggs would be a bit more palatable.  They do have a nice pancake machine.  The pool is nice.  I also used the guest laundry, which was very clean and nice.  I would definitely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r493663225-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>493663225</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Very happy</t>
+  </si>
+  <si>
+    <t>This place was wonderful and will be stay here again. This was mine second time staying here. The rooms are always super clean. I don't have to worry about leave my things in my room. I know there safe. I do wish they had night SECURITY staff. I will be staying here again, do wish it was better for a two night stay, but still happy..!MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 19, 2017</t>
+  </si>
+  <si>
+    <t>This place was wonderful and will be stay here again. This was mine second time staying here. The rooms are always super clean. I don't have to worry about leave my things in my room. I know there safe. I do wish they had night SECURITY staff. I will be staying here again, do wish it was better for a two night stay, but still happy..!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r492239796-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -729,6 +1097,57 @@
     <t>Was an excellent stay. Room was clean, and breakfast was fresh! Definitely recommend to anyone. And definitely visiting again. People friendly,  receptionist was very kind, check in was fast. Jist an excellent experience. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r489861797-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>489861797</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>Road trip on I-10 thru Texas</t>
+  </si>
+  <si>
+    <t>New hotel with very clean comfortable space, helpful staff and convenient location. Bathroom spotless withVanity very user friendly with room for toiletries .bedding linens were fresh and bed was very comfortable MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>New hotel with very clean comfortable space, helpful staff and convenient location. Bathroom spotless withVanity very user friendly with room for toiletries .bedding linens were fresh and bed was very comfortable More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r488622346-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>488622346</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>I stayed for a week for business.  Great location, close to downtown Houston.  Staff was exemplary - very professional and courteous.  Very clean interior, nice little workout room and a small outdoor pool.  I'll stay here again if the opportunity arises.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>I stayed for a week for business.  Great location, close to downtown Houston.  Staff was exemplary - very professional and courteous.  Very clean interior, nice little workout room and a small outdoor pool.  I'll stay here again if the opportunity arises.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r484319175-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -744,9 +1163,6 @@
     <t>Best Western Plus Spring... We need to talk. Your hotel is clean and newish. Your staff is kind and generally competent. Your pool is nice and rarely crowded. Your breakfast is... easily the worst I've had in a hotel ever. Ever. Ever. Ever. Let me tell you what I observed each morning (three days worth) in your breakfast area. 1. Guest fills a plate with food. Biscuits, gravy, eggs, hash browns, etc. They take a seat and tuck in. 2. First bite- stopped in their tracks. The gravy is watery, inedibly salty, and tastes very strongly of flour (meaning it wasn't cooked long enough). The hashbrowns were either prepared at 1am or just overcooked to the point of literally tasting like cardboard. Seriously do something about the hashbrowns! The eggs... ugh you get the point. 3. Each guest throws away at least an entire plate full of inedible food and tries again. Maybe they even throw out a second plate, just trying to find some sustenance among the overcooked food. 4. Eventually they settle on yogurt or a bagel. For a decent hotel, you are wasting SO MUCH money on food getting thrown away. Every table seemed to have the same experience. Your breakfast staff is not tasting the food or just doesn't care that it's nasty. I witnessed this three days in a row. A crappy breakfast isn't a deal breaker for everyone- but it is for our family....Best Western Plus Spring... We need to talk. Your hotel is clean and newish. Your staff is kind and generally competent. Your pool is nice and rarely crowded. Your breakfast is... easily the worst I've had in a hotel ever. Ever. Ever. Ever. Let me tell you what I observed each morning (three days worth) in your breakfast area. 1. Guest fills a plate with food. Biscuits, gravy, eggs, hash browns, etc. They take a seat and tuck in. 2. First bite- stopped in their tracks. The gravy is watery, inedibly salty, and tastes very strongly of flour (meaning it wasn't cooked long enough). The hashbrowns were either prepared at 1am or just overcooked to the point of literally tasting like cardboard. Seriously do something about the hashbrowns! The eggs... ugh you get the point. 3. Each guest throws away at least an entire plate full of inedible food and tries again. Maybe they even throw out a second plate, just trying to find some sustenance among the overcooked food. 4. Eventually they settle on yogurt or a bagel. For a decent hotel, you are wasting SO MUCH money on food getting thrown away. Every table seemed to have the same experience. Your breakfast staff is not tasting the food or just doesn't care that it's nasty. I witnessed this three days in a row. A crappy breakfast isn't a deal breaker for everyone- but it is for our family. We have a young child and breakfast sets the tone for the day. I would highly recommend the manager of this hotel to set up some standards for breakfast service. You'll save money on throwaway food at the very least. That is all. MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 16, 2017</t>
   </si>
   <si>
@@ -792,6 +1208,54 @@
     <t>Very clean,new, nonsmoking hotel. Friendly staff.  Convenient to shopping and interstate.   Breakfast is typical of most hotels. The Woodlands is close by. Great shopping and restaurants there. Airport is about 20 minutes away. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r483088124-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>483088124</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Great facilities , hot breakfast and friendly staff</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay very much. We selected this facility because it does not allow pets. The room decor was excellent and spotless. Great fitness facilities . The property is relatively new as reflected in the pristine condition of the room and common areas. Would definitely recommend this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay very much. We selected this facility because it does not allow pets. The room decor was excellent and spotless. Great fitness facilities . The property is relatively new as reflected in the pristine condition of the room and common areas. Would definitely recommend this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r482524998-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>482524998</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>GREAT STAY</t>
+  </si>
+  <si>
+    <t>I booked on book.com, arrived about 45 minutes later and booking was ready, room was ready and I was in the room within 5 minutes or less of my arrival. The desk clerk was awesome, helpful and courteous. The overall cleanliness was excellent. The appearance was awesome when I first walked in and I was impressed. I remember saying to myself as I realized I was smiling "I did awesome"  You see I would usually have had my husband with me or had him do the hotel picking and booking, I followed his pattern and I was relieved to walk into a clean friendly upbeat atmosphere, I was very exhausted so I was able to get into my room take a shower and a cat nap prior to my company event later that night.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>I booked on book.com, arrived about 45 minutes later and booking was ready, room was ready and I was in the room within 5 minutes or less of my arrival. The desk clerk was awesome, helpful and courteous. The overall cleanliness was excellent. The appearance was awesome when I first walked in and I was impressed. I remember saying to myself as I realized I was smiling "I did awesome"  You see I would usually have had my husband with me or had him do the hotel picking and booking, I followed his pattern and I was relieved to walk into a clean friendly upbeat atmosphere, I was very exhausted so I was able to get into my room take a shower and a cat nap prior to my company event later that night.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r482006815-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -867,6 +1331,51 @@
     <t>My husband and I highly recommend this Best Western.Very clean comfortable room and lobby. The staff went above and beyond to accommodate. Friendly service, wonderful rooms and great location, easy access from 45.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r475443348-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>475443348</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Everything was great and welcoming. The staff was professional and thoughtful and the facility was clean and inviting. I would recommend this hotel to anyone traveling in this area of Texas. Even if they just want to get away, this hotel is one of the best in the chain of hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded April 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2017</t>
+  </si>
+  <si>
+    <t>Everything was great and welcoming. The staff was professional and thoughtful and the facility was clean and inviting. I would recommend this hotel to anyone traveling in this area of Texas. Even if they just want to get away, this hotel is one of the best in the chain of hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r473701310-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>473701310</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Visiting Family in Spring</t>
+  </si>
+  <si>
+    <t>I think this motel was a great value.  We had a king bedroom with refrigerator and microwave.  The room was clean and spacious.  The Shower was very good and the bed was comfortable and firm.  The breakfast area was kept very tidy and I thought the breakfast was very good.  Lots of choices and good quality.  The staff here went the extra mile to be friendly and courteous.  I definitely would make this my first choice if I visit the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>I think this motel was a great value.  We had a king bedroom with refrigerator and microwave.  The room was clean and spacious.  The Shower was very good and the bed was comfortable and firm.  The breakfast area was kept very tidy and I thought the breakfast was very good.  Lots of choices and good quality.  The staff here went the extra mile to be friendly and courteous.  I definitely would make this my first choice if I visit the area again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r472357172-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -933,15 +1442,60 @@
     <t>The hotel was well kept. The staff was amazing. This was a very short stay but exceeded expectation nonetheless. The very late check in was handled professionally and he was more than accommodating. Needed a late check out and again they were more than happy to help More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r469578636-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>469578636</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay</t>
+  </si>
+  <si>
+    <t>This was the first time I have stayed at a Best Western Plus and I must say, it was very nice hotel. The hotel looks new, its very close to IAH airport and it's adjacent to Walmart and a small strip mall that consists of Famous Footwear, Kohl's, Ross and a Michael's. The only issue that I dud have was my initial arrival.  The front desk clerk on duty, Sarika was not very welcoming. She did not greet me when I came in, was busy typing something on her computer and never spoke a word until she was completed and it was nothing but a dry, "how can I help you". I was surprised that as a front desk clerk, you don't acknowledge your guests with a warmer greeting or at least an acknowledgement if you are in the middle of something.  There was no conversation and I was shocked at her mannerism. Itwas like I interrupted what she was doing and it wasn't until I asked if they had comment cards that her entire demeanor changed and she attempted to be friendly with me and engage in conversation then. I have stayed at hotels more than once but this was the first time that I've experienced this. Customer service is key in representing your company especially when yours is the first face the guests see when they come to your establishment. Be mindful of how you treat people because...This was the first time I have stayed at a Best Western Plus and I must say, it was very nice hotel. The hotel looks new, its very close to IAH airport and it's adjacent to Walmart and a small strip mall that consists of Famous Footwear, Kohl's, Ross and a Michael's. The only issue that I dud have was my initial arrival.  The front desk clerk on duty, Sarika was not very welcoming. She did not greet me when I came in, was busy typing something on her computer and never spoke a word until she was completed and it was nothing but a dry, "how can I help you". I was surprised that as a front desk clerk, you don't acknowledge your guests with a warmer greeting or at least an acknowledgement if you are in the middle of something.  There was no conversation and I was shocked at her mannerism. Itwas like I interrupted what she was doing and it wasn't until I asked if they had comment cards that her entire demeanor changed and she attempted to be friendly with me and engage in conversation then. I have stayed at hotels more than once but this was the first time that I've experienced this. Customer service is key in representing your company especially when yours is the first face the guests see when they come to your establishment. Be mindful of how you treat people because you never know who they are. In any event, my stay went well and I had no other issues. If I'm in Houston again, which I know I will, I would stay at this hotel again because the price was reasonable especially if your a AAA holder,  the rooms were clean and its close to everything. They also offer a grab and go continental breakfast which I always enjoy.MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded March 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 24, 2017</t>
+  </si>
+  <si>
+    <t>This was the first time I have stayed at a Best Western Plus and I must say, it was very nice hotel. The hotel looks new, its very close to IAH airport and it's adjacent to Walmart and a small strip mall that consists of Famous Footwear, Kohl's, Ross and a Michael's. The only issue that I dud have was my initial arrival.  The front desk clerk on duty, Sarika was not very welcoming. She did not greet me when I came in, was busy typing something on her computer and never spoke a word until she was completed and it was nothing but a dry, "how can I help you". I was surprised that as a front desk clerk, you don't acknowledge your guests with a warmer greeting or at least an acknowledgement if you are in the middle of something.  There was no conversation and I was shocked at her mannerism. Itwas like I interrupted what she was doing and it wasn't until I asked if they had comment cards that her entire demeanor changed and she attempted to be friendly with me and engage in conversation then. I have stayed at hotels more than once but this was the first time that I've experienced this. Customer service is key in representing your company especially when yours is the first face the guests see when they come to your establishment. Be mindful of how you treat people because...This was the first time I have stayed at a Best Western Plus and I must say, it was very nice hotel. The hotel looks new, its very close to IAH airport and it's adjacent to Walmart and a small strip mall that consists of Famous Footwear, Kohl's, Ross and a Michael's. The only issue that I dud have was my initial arrival.  The front desk clerk on duty, Sarika was not very welcoming. She did not greet me when I came in, was busy typing something on her computer and never spoke a word until she was completed and it was nothing but a dry, "how can I help you". I was surprised that as a front desk clerk, you don't acknowledge your guests with a warmer greeting or at least an acknowledgement if you are in the middle of something.  There was no conversation and I was shocked at her mannerism. Itwas like I interrupted what she was doing and it wasn't until I asked if they had comment cards that her entire demeanor changed and she attempted to be friendly with me and engage in conversation then. I have stayed at hotels more than once but this was the first time that I've experienced this. Customer service is key in representing your company especially when yours is the first face the guests see when they come to your establishment. Be mindful of how you treat people because you never know who they are. In any event, my stay went well and I had no other issues. If I'm in Houston again, which I know I will, I would stay at this hotel again because the price was reasonable especially if your a AAA holder,  the rooms were clean and its close to everything. They also offer a grab and go continental breakfast which I always enjoy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r468048692-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>468048692</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>I really liked everything there .i will stay again there .thanks  Ghulam Kahloon</t>
+  </si>
+  <si>
+    <t>Location and Entrance is just perfect .Front desk was very helpful , Room was clean , Brakfast also was good, Internet is fast and unlimited use. Beds and bedsheet were crank . I recommend to stay here.                 MoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Location and Entrance is just perfect .Front desk was very helpful , Room was clean , Brakfast also was good, Internet is fast and unlimited use. Beds and bedsheet were crank . I recommend to stay here.                 More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r468033325-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
     <t>468033325</t>
   </si>
   <si>
-    <t>03/17/2017</t>
-  </si>
-  <si>
     <t>Comfortable Stay</t>
   </si>
   <si>
@@ -960,12 +1514,6 @@
     <t>This is the first time I have stayed at this hotel. It was very nice. y Very clean. The staff was wonderful and nice to talk to. Could use better eggs at breakfast taste like card board. Sleep really well.MoreShow less</t>
   </si>
   <si>
-    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded March 18, 2017</t>
-  </si>
-  <si>
-    <t>Responded March 18, 2017</t>
-  </si>
-  <si>
     <t>This is the first time I have stayed at this hotel. It was very nice. y Very clean. The staff was wonderful and nice to talk to. Could use better eggs at breakfast taste like card board. Sleep really well.More</t>
   </si>
   <si>
@@ -993,6 +1541,57 @@
     <t>Had a family emergency and selected this hotel online. Was very pleased with this hotel and will feel comfortable with returning. The hotel and room decor and the comfort of the room were all excellent.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r463632217-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>463632217</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay near Spring</t>
+  </si>
+  <si>
+    <t>The facility, amenities and service were all great.  The location is very convenient with easy access from I-45 and Grand Parkway.  This is where we want to stay when we come to the Houston / Woodlands area.  .MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded March 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2017</t>
+  </si>
+  <si>
+    <t>The facility, amenities and service were all great.  The location is very convenient with easy access from I-45 and Grand Parkway.  This is where we want to stay when we come to the Houston / Woodlands area.  .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r462363171-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>462363171</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t>Work Trip</t>
+  </si>
+  <si>
+    <t>booked this hotel using a third party site and my reservation was not properly sent. I was helped by Sarika at the front desk. for over three hours she made all necessary calls to get my reservation into their system and got me a room. will sure be staying here every week when I come to workMoreShow less</t>
+  </si>
+  <si>
+    <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>booked this hotel using a third party site and my reservation was not properly sent. I was helped by Sarika at the front desk. for over three hours she made all necessary calls to get my reservation into their system and got me a room. will sure be staying here every week when I come to workMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r461760515-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1008,9 +1607,6 @@
     <t>Nice hotel. I will book here again. Easy to get to. Just off Interstate 45 North access road. Location off highway but close to local restaurants. New equipment in gym. All accommodations as expected from Best Western. MoreShow less</t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
     <t>rushpatel1989, General Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded February 28, 2017</t>
   </si>
   <si>
@@ -1059,6 +1655,45 @@
     <t>The facility is new.  The front desk staff is friendly and efficient.  The rooms are equipped with all necessary accessories and are comfortable.  The breakfast offerings were tasty and the quality of the offerings were in line with a hotel of this chain.  Good experience.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r455615910-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>455615910</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new and you can tell. The room and property are well kept, clean and beautiful. Arrived via personal car. The GPS directions are wrong, but you can correct yourself easily. Check in was fast. The front desk clerk was nice. The room: Spacious! The double beds were comfy. The pillows are small, but there's four to a bed which makes two big ones. The room comes with a fridge, microwave and coffee maker. The bathroom was clean and big. The shower had good water pressure. The toiletries included shampoo, conditioner, lotion, bar soap and make up remover towels. The breakfast: typical continental with a little extras. They had a waffle maker with regular batter and chocolate chip. They also had eggs, sausage, biscuits, breads, fruit, Greek yogurt, juice, coffee and hot chocolate. The breakfast room had plenty of seating. Checkout was fast. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>The hotel is fairly new and you can tell. The room and property are well kept, clean and beautiful. Arrived via personal car. The GPS directions are wrong, but you can correct yourself easily. Check in was fast. The front desk clerk was nice. The room: Spacious! The double beds were comfy. The pillows are small, but there's four to a bed which makes two big ones. The room comes with a fridge, microwave and coffee maker. The bathroom was clean and big. The shower had good water pressure. The toiletries included shampoo, conditioner, lotion, bar soap and make up remover towels. The breakfast: typical continental with a little extras. They had a waffle maker with regular batter and chocolate chip. They also had eggs, sausage, biscuits, breads, fruit, Greek yogurt, juice, coffee and hot chocolate. The breakfast room had plenty of seating. Checkout was fast. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r452271030-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>452271030</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Great Price and close to area attractions</t>
+  </si>
+  <si>
+    <t>The hotel seems to be a little newer thus the room was very clean and comfortable. The breakfast was much more than I had expected and the overall rate for the area was awesome! It's a little tricky to get to the hotel with Maps. You have to make a u-turn at a red light but it's right off I-45 North. The service roads are a real pain in the rear in Texas but just something you have to get used to I'm guessingMoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel seems to be a little newer thus the room was very clean and comfortable. The breakfast was much more than I had expected and the overall rate for the area was awesome! It's a little tricky to get to the hotel with Maps. You have to make a u-turn at a red light but it's right off I-45 North. The service roads are a real pain in the rear in Texas but just something you have to get used to I'm guessingMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r447980965-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1116,6 +1751,36 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r442877408-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>442877408</t>
+  </si>
+  <si>
+    <t>12/08/2016</t>
+  </si>
+  <si>
+    <t>Best Stay Ever</t>
+  </si>
+  <si>
+    <t>I had a very enjoyable stay on a recent business/ministry triP to Spring, Texas. My stay was enhanced by lodging at the Spring Best Western Plus Hotel. Service was above average, and a tremendous blessing.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r441759141-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>441759141</t>
+  </si>
+  <si>
+    <t>12/03/2016</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the room was clean and okay. The shower took forever to get hot. At least 15 minutes....The breakfast did not have that many choices. I got the egg omelette and sausage and the egg was cold and whatever was inside it did not taste good. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r439089921-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1829,45 @@
     <t>This was our first time at this particular Best Western and the whole experience was great. The room was very nice and the bed was comfortable. Bath room was spacious. Every staff  member we talked to was very helpful and friendly. We plan on staying here each time we visit.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r434468088-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>434468088</t>
+  </si>
+  <si>
+    <t>11/03/2016</t>
+  </si>
+  <si>
+    <t>I would stay again</t>
+  </si>
+  <si>
+    <t>The hotel was very nice inside and out. I love the modern look. It was really quiet and peaceful. The only issue I had is that there were some ants inside the bathroom upon check in. The staff was okay I told them about the ants and she said okay and called back about an hour later to see if they were still an issue. Overall I would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r425846435-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>425846435</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>This was one of the newest and cleanest Best Western hotels that I have stayed at recently. The rooms were great and comfortable, offered a variety of breakfast options and we were welcomed by the staff (front desk and break fast attendee).MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>This was one of the newest and cleanest Best Western hotels that I have stayed at recently. The rooms were great and comfortable, offered a variety of breakfast options and we were welcomed by the staff (front desk and break fast attendee).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r424963708-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1239,6 +1943,60 @@
     <t>I had arrived on a 6:30 am flight and had several hours to fill in until time to leave for a funeral. Mr. Rasesh Patel was so accommodating and allowed me to check in early and rest before attending a funeral. Also offered me the breakfast service. The hotel is clean and the staff are pleasant and attentive to  your needs.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r413330262-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>413330262</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Always Enjoy Staying at this Hotel</t>
+  </si>
+  <si>
+    <t>Absolutely wonderful hotel &amp; staff. Greeted by Avis yesterday afternoon with a smile and warm caring personality. Genuinely cared about me. Perfect location to get on/off I-45 in Spring, TX. Every restaurant you could imagine is within a couple miles. The hotel is perfect. Everything you need to relax and have a good night sleep. When I am in Spring, this is my only hotel I will stay at.They treat you right.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2016</t>
+  </si>
+  <si>
+    <t>Absolutely wonderful hotel &amp; staff. Greeted by Avis yesterday afternoon with a smile and warm caring personality. Genuinely cared about me. Perfect location to get on/off I-45 in Spring, TX. Every restaurant you could imagine is within a couple miles. The hotel is perfect. Everything you need to relax and have a good night sleep. When I am in Spring, this is my only hotel I will stay at.They treat you right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r394172377-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>394172377</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Very Friendly Staff</t>
+  </si>
+  <si>
+    <t>Very quiet and pleasant stay.. it was very comfortable and relaxing, Ms.Avis and J Webb was very friendly and made me feel welcome.. it was home away from home, The rooms was very clean and the bed is very comfortable, would definitely be staying againMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Very quiet and pleasant stay.. it was very comfortable and relaxing, Ms.Avis and J Webb was very friendly and made me feel welcome.. it was home away from home, The rooms was very clean and the bed is very comfortable, would definitely be staying againMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r393095428-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1254,9 +2012,6 @@
     <t>We stayed at the Best Western Plus in Spring Texas.  We were impressed by the friendly staff, clean building and room, breakfast, location near airport and the town of Spring TX and the price was very reasonable.MoreShow less</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded July 18, 2016</t>
   </si>
   <si>
@@ -1317,6 +2072,48 @@
     <t>We checked in very late, and the front desk staff was wonderful despite the ridiculous hour. The room was stunning, much better than standard chain fare. The breakfast was about what one expects, but given the quality of the hotel itself (and the price) could have been better. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r383551762-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>383551762</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Horrible experience</t>
+  </si>
+  <si>
+    <t>After checking in my wife laid down because she was not feeling well. She soon discovered that the bed had been urinated in and was covered in someone else's urine. She called the front desk to report the issue and get a new room. She was told that all of the rooms with two beds had been booked and we would have to move to a room with one bed for three people. The front desk lady asked if it was like that when we checked in and also insisted in coming to the room to see for herself that the bed was soaked in urine. We live half our lives in hotels and have never heard of an employee checking the issue to insure we weren't making it up even for complaints about smells, leaks, etc. never happens. The front desk woman comes to the room and decided my wife is scary because she is upset about having just laid in someone's urine. Who wouldn't be visibly upset? The front desk lady decided to kick us out. Obviously they are sold out and had no intention of rectifying the issue and also refuse to refund the money. This was my first and last visit to a best western. Hopefully the credit card company or booking company will rectify the situation as best western obviously does not care of its customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>After checking in my wife laid down because she was not feeling well. She soon discovered that the bed had been urinated in and was covered in someone else's urine. She called the front desk to report the issue and get a new room. She was told that all of the rooms with two beds had been booked and we would have to move to a room with one bed for three people. The front desk lady asked if it was like that when we checked in and also insisted in coming to the room to see for herself that the bed was soaked in urine. We live half our lives in hotels and have never heard of an employee checking the issue to insure we weren't making it up even for complaints about smells, leaks, etc. never happens. The front desk woman comes to the room and decided my wife is scary because she is upset about having just laid in someone's urine. Who wouldn't be visibly upset? The front desk lady decided to kick us out. Obviously they are sold out and had no intention of rectifying the issue and also refuse to refund the money. This was my first and last visit to a best western. Hopefully the credit card company or booking company will rectify the situation as best western obviously does not care of its customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r382655019-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>382655019</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>One night in Spring</t>
+  </si>
+  <si>
+    <t>Hotel was very clean! All of the staff members I encountered were very friendly and helpful. Pool area was nice and I enjoyed my morning workout in the fitness room (couldn't find the remotes to the tvs) . Breakfast was not appealing...should consider real eggs and making sure someone is assigned to clean up the waffle area often.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Hotel was very clean! All of the staff members I encountered were very friendly and helpful. Pool area was nice and I enjoyed my morning workout in the fitness room (couldn't find the remotes to the tvs) . Breakfast was not appealing...should consider real eggs and making sure someone is assigned to clean up the waffle area often.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r380385206-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1377,6 +2174,54 @@
     <t>This property is basically new. Great beds very well rested. Room was spacious  and clean. Love the door locks first time using them and excellent. Right off the highway easy to find. Breakfast was good but on my last stay no orange juice:(. Staff was friendly and very helpful. Over all experience great stay.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r377521494-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>377521494</t>
+  </si>
+  <si>
+    <t>05/29/2016</t>
+  </si>
+  <si>
+    <t>Better than average strip mall hotel, far from Airport.</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for only a few hours after missing a flight connection during the latest big storm.  The new Hotel is new, modern, clean, reception staff very friendly, even at 2:00am.     Nice lobby with modern furniture, large hotel room, good furniture and comfortable bed.    Bathroom itself a little small for size of room.  Hours (on Saturday) started at 7:00am, too late for my early morning flight.  But there were several items out when I came downstairs so it was okay.Although you may get the impression from websites that this is an airport hotel, close to George Bush International, it is not.  It was more than 20 minutes and a $45.00 cab drive.......  worse, it was difficult to find a cab to take me back to the airport for my early departure.  Even with a scheduled pick-up of 6:30am, it was more than 30 min. late.  (I finally took Uber, much better and cheaper option!!)  I would stay again if I had reason to be in the area, but not as an airport hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for only a few hours after missing a flight connection during the latest big storm.  The new Hotel is new, modern, clean, reception staff very friendly, even at 2:00am.     Nice lobby with modern furniture, large hotel room, good furniture and comfortable bed.    Bathroom itself a little small for size of room.  Hours (on Saturday) started at 7:00am, too late for my early morning flight.  But there were several items out when I came downstairs so it was okay.Although you may get the impression from websites that this is an airport hotel, close to George Bush International, it is not.  It was more than 20 minutes and a $45.00 cab drive.......  worse, it was difficult to find a cab to take me back to the airport for my early departure.  Even with a scheduled pick-up of 6:30am, it was more than 30 min. late.  (I finally took Uber, much better and cheaper option!!)  I would stay again if I had reason to be in the area, but not as an airport hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r376627651-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>376627651</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Nice to see a brand new hotel across from a strip mall</t>
+  </si>
+  <si>
+    <t>The Best Western Plus Spring Inn &amp; Suites in Spring, Texas was overall great! It was a brand new hotel and everything looked and smelled new. It was in a prime location - directly across the street from shopping stores: Famous Footwear, Michael's, Ross, Kohl's and Wal-Mart. The bathroom layout was a bit strange in that it only had a very large shower with glass door (not tub) and an unusual fair-sized empty space with nothing in it, and then the toilet. The single sink was outside and across from the closet which would have been ok if the lighting in the room wasn't so dim. The closet could only be used on one side, as the pole for the hangers was over too far causing the hangers to extend beyond the door in order to close the closet doors. My experience was only dampened by the fact that I was unable to get any points for my stay because I was told that because it was booked through a 3rd party (Expedia) that I am not eligible to receive points. This has never been the case before so I was not pleased about that and will definitely look into that further.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2016</t>
+  </si>
+  <si>
+    <t>The Best Western Plus Spring Inn &amp; Suites in Spring, Texas was overall great! It was a brand new hotel and everything looked and smelled new. It was in a prime location - directly across the street from shopping stores: Famous Footwear, Michael's, Ross, Kohl's and Wal-Mart. The bathroom layout was a bit strange in that it only had a very large shower with glass door (not tub) and an unusual fair-sized empty space with nothing in it, and then the toilet. The single sink was outside and across from the closet which would have been ok if the lighting in the room wasn't so dim. The closet could only be used on one side, as the pole for the hangers was over too far causing the hangers to extend beyond the door in order to close the closet doors. My experience was only dampened by the fact that I was unable to get any points for my stay because I was told that because it was booked through a 3rd party (Expedia) that I am not eligible to receive points. This has never been the case before so I was not pleased about that and will definitely look into that further.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r375495761-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +2288,54 @@
     <t>Staff very helpful, quick check in/out, accommodating with early/late check out, quiet, clean. Beds comfortable. Pool was a little small but clean and there were enough lounge chairs in outdoor area. Only improvement would be to have some shade in pool area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r373576166-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>373576166</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>The bed was comfortable and the location was excellent for the Crawfish Festival.  It was also located close to restaurants and had easy access from the highway.  The staff was very friendly and went out of their way to make our stay comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2016</t>
+  </si>
+  <si>
+    <t>The bed was comfortable and the location was excellent for the Crawfish Festival.  It was also located close to restaurants and had easy access from the highway.  The staff was very friendly and went out of their way to make our stay comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r371071767-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>371071767</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Best "Best Western" ever</t>
+  </si>
+  <si>
+    <t>Very modern, clean and friendly hotel. It is ideally situated off the I-45 and close to many restaurant options.  The staff is extremely professional and courteous.  This hotel is definitely to be recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2016</t>
+  </si>
+  <si>
+    <t>Very modern, clean and friendly hotel. It is ideally situated off the I-45 and close to many restaurant options.  The staff is extremely professional and courteous.  This hotel is definitely to be recommended!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r370394013-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1458,12 +2351,6 @@
     <t>My mother and I stayed here while attending the funeral of a long-time family friend. The front desk and staff were great. This is a new hotel, so the rooms were really nice.... The breakfast was okay....2 days of breakfast burritos, even with different fillings was not my favorite....but, I would definitely stay here again....MoreShow less</t>
   </si>
   <si>
-    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded May 9, 2016</t>
-  </si>
-  <si>
-    <t>Responded May 9, 2016</t>
-  </si>
-  <si>
     <t>My mother and I stayed here while attending the funeral of a long-time family friend. The front desk and staff were great. This is a new hotel, so the rooms were really nice.... The breakfast was okay....2 days of breakfast burritos, even with different fillings was not my favorite....but, I would definitely stay here again....More</t>
   </si>
   <si>
@@ -1518,6 +2405,48 @@
     <t>New and Clean hotel.  Had a suite, It was a great value. typical breakfast... nothing special, but adequate. Nice, small pool.  Right off I45 and close to shopping and fast food.  I would stay again if I was in the areaMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r361674915-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>361674915</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>Room was great and got it on the 1st floor.. easy in and out.. guy was new and nice.. bed was comfortable.. I was stay again.. will look for Best Western on next trip.. bathrooms were clean also..  funMoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Room was great and got it on the 1st floor.. easy in and out.. guy was new and nice.. bed was comfortable.. I was stay again.. will look for Best Western on next trip.. bathrooms were clean also..  funMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r361336907-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>361336907</t>
+  </si>
+  <si>
+    <t>04/03/2016</t>
+  </si>
+  <si>
+    <t>4 nights stay... quite nice!</t>
+  </si>
+  <si>
+    <t>We came to visit my son, who's place is too small for overnight company. The hotel was apparently very new, lovely and the staff was friendly and lovely to deal with. Our was a king room (immaculate) it was plenty for us. Comfy bed, great shower and the standard breakfast fare in the morning. Don't be late. The only trouble we had was with the electronic key cards to get into the room... they lose their code and you can find yourself locked out of your room at the oddest times. Like an ice machine run... dumb, right? Easily fixed, but you have to go to the front desk and wait in line. But EVERYTHING else is lovely!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We came to visit my son, who's place is too small for overnight company. The hotel was apparently very new, lovely and the staff was friendly and lovely to deal with. Our was a king room (immaculate) it was plenty for us. Comfy bed, great shower and the standard breakfast fare in the morning. Don't be late. The only trouble we had was with the electronic key cards to get into the room... they lose their code and you can find yourself locked out of your room at the oddest times. Like an ice machine run... dumb, right? Easily fixed, but you have to go to the front desk and wait in line. But EVERYTHING else is lovely!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r359944654-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1536,12 +2465,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded April 5, 2016</t>
-  </si>
-  <si>
-    <t>Responded April 5, 2016</t>
-  </si>
-  <si>
     <t>New hotel, comfy beds, stayed for about two weeks in Jan and went back to same place for 4 days in March. Good location for north side of Houston or Bush Airport. Check out Old Spring town nearby if you have some free time.More</t>
   </si>
   <si>
@@ -1584,6 +2507,48 @@
     <t>This hotel is one of the best Best Westerns we have stayed in in a long time.  Great staff, delicious breakfast and outstanding room.  We would definitely go back to Spring, Texas and stay at this hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r358905636-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>358905636</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>Four restful nights</t>
+  </si>
+  <si>
+    <t>This motel provided an attractive clean room, fast internet, quiet despite proximity to major highway, and included a continental breakfast. In short, this motel provided everything that I needed and would have wanted during my stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>This motel provided an attractive clean room, fast internet, quiet despite proximity to major highway, and included a continental breakfast. In short, this motel provided everything that I needed and would have wanted during my stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r357204440-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>357204440</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t>Attending a wedding</t>
+  </si>
+  <si>
+    <t>Great new hotel! It was clean, the service was great, and the hotel staff are very friendly. The hotel is near several restaurants and the freeway, making it a great option for someone visiting Spring, Texas.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Great new hotel! It was clean, the service was great, and the hotel staff are very friendly. The hotel is near several restaurants and the freeway, making it a great option for someone visiting Spring, Texas.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r353815723-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1656,6 +2621,57 @@
     <t>Yes, this facility is brand new, and we stayed there during its first month of business.  The staff and manager were very accommodating with our large family group that stayed there for several days.  Rashesh Patel, the manager, was especially helpful and from him right down to the breakfast attendants, we enjoyed friendly service all the way around.   The modern décor was very nice.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r336211463-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>336211463</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>New, Clean, Safe and Friendly</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel!  The staff is very helpful and friendly. The room and facilitiy are white glove clean, and I felt very safe during my stay.  In additon, the internet was fast, the hotel on the whole was quite, and the hot breakfas was more than adequate. A great value, and a hotel I will recommend and stay at again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded January 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2016</t>
+  </si>
+  <si>
+    <t>This is a brand new hotel!  The staff is very helpful and friendly. The room and facilitiy are white glove clean, and I felt very safe during my stay.  In additon, the internet was fast, the hotel on the whole was quite, and the hot breakfas was more than adequate. A great value, and a hotel I will recommend and stay at again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r333422942-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
+  </si>
+  <si>
+    <t>333422942</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>We stayed overnight as the hotel was close to the location of my company party.  This location is brand new and everything was very pristine. However, the water in the shower was barely warm as we got ready for the party.  The next morning it was not any better.  The towels were brand new and had not been properly laundered prior to putting them in the room.  Otherwise, it was a very quiet stay. As we checked out the clerk did inquire about our stay and promised to bring our concerns to the attention of the owner.  I will definitely stay again because the staff was very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>gwendysuethurman, Guest Relations Manager at Best Western Plus Spring Inn &amp; Suites, responded to this reviewResponded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2015</t>
+  </si>
+  <si>
+    <t>We stayed overnight as the hotel was close to the location of my company party.  This location is brand new and everything was very pristine. However, the water in the shower was barely warm as we got ready for the party.  The next morning it was not any better.  The towels were brand new and had not been properly laundered prior to putting them in the room.  Otherwise, it was a very quiet stay. As we checked out the clerk did inquire about our stay and promised to bring our concerns to the attention of the owner.  I will definitely stay again because the staff was very friendly.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r336211469-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
   </si>
   <si>
@@ -1669,9 +2685,6 @@
   </si>
   <si>
     <t>Hard to find any faults with this place since it is brand new. The staff was great and everything was nice and clean being brand new. It's located right off of I-45 and there are plenty of food options back across the highway. For a pleasant surprise the fitness center next door has a retaurant in it and serves a tasty burger.</t>
-  </si>
-  <si>
-    <t>December 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56701-d8722633-r326147882-Best_Western_Plus_Spring_Inn_Suites-Spring_Texas.html</t>
@@ -2243,7 +3256,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2252,28 +3265,32 @@
         <v>53</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -2289,7 +3306,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -2298,26 +3315,22 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>60</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -2328,13 +3341,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -2350,7 +3363,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2359,36 +3372,50 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
         <v>4</v>
       </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="Y4" t="s">
         <v>71</v>
@@ -2431,28 +3458,34 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
         <v>77</v>
       </c>
-      <c r="O5" t="s">
-        <v>78</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>79</v>
-      </c>
-      <c r="X5" t="s">
-        <v>80</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -2468,34 +3501,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" t="s">
-        <v>78</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2507,13 +3540,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
@@ -2529,62 +3562,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>91</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>92</v>
-      </c>
-      <c r="L7" t="s">
-        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>93</v>
+      </c>
+      <c r="X7" t="s">
         <v>94</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Y7" t="s">
         <v>95</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
-      <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>79</v>
-      </c>
-      <c r="X7" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -2600,62 +3619,56 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
         <v>98</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>87</v>
-      </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="X8" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9">
@@ -2671,52 +3684,56 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
         <v>103</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>104</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>105</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>106</v>
       </c>
-      <c r="L9" t="s">
-        <v>107</v>
-      </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="X9" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
@@ -2732,31 +3749,35 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>111</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>112</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>113</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>114</v>
       </c>
-      <c r="L10" t="s">
-        <v>115</v>
-      </c>
       <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
@@ -2767,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>115</v>
+      </c>
+      <c r="X10" t="s">
         <v>116</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>117</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11">
@@ -2789,58 +3810,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>119</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>120</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>121</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>122</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>123</v>
       </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>115</v>
+      </c>
+      <c r="X11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y11" t="s">
         <v>124</v>
-      </c>
-      <c r="O11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
-      <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12">
@@ -2883,35 +3898,35 @@
         <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="X12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y12" t="s">
         <v>132</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13">
@@ -2927,62 +3942,62 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>134</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>135</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>136</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>137</v>
       </c>
-      <c r="L13" t="s">
-        <v>138</v>
-      </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="X13" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2998,62 +4013,54 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
         <v>143</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>144</v>
       </c>
-      <c r="J14" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" t="s">
-        <v>147</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>139</v>
-      </c>
       <c r="O14" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="X14" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -3069,7 +4076,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3078,34 +4085,38 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
       </c>
-      <c r="Q15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
       <c r="R15" t="n">
         <v>5</v>
       </c>
-      <c r="S15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -3114,13 +4125,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="X15" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -3136,7 +4147,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -3145,25 +4156,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3175,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="X16" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="Y16" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
@@ -3197,7 +4208,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3206,53 +4217,39 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
-      </c>
-      <c r="N17" t="s">
-        <v>164</v>
-      </c>
-      <c r="O17" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="X17" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -3268,7 +4265,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3277,31 +4274,31 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
         <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>5</v>
       </c>
       <c r="R18" t="n">
         <v>5</v>
@@ -3311,19 +4308,19 @@
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="X18" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="Y18" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
@@ -3339,7 +4336,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3348,53 +4345,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J19" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="K19" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>190</v>
-      </c>
-      <c r="X19" t="s">
-        <v>191</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
@@ -3410,7 +4403,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3419,34 +4412,34 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="J20" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K20" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="O20" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -3458,14 +4451,10 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>199</v>
-      </c>
-      <c r="X20" t="s">
-        <v>200</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
@@ -3481,7 +4470,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3490,53 +4479,53 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="X21" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="Y21" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
@@ -3552,7 +4541,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3561,53 +4550,53 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="X22" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
@@ -3623,7 +4612,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3632,43 +4621,53 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>201</v>
+      </c>
+      <c r="O23" t="s">
+        <v>84</v>
+      </c>
+      <c r="P23" t="n">
         <v>4</v>
       </c>
-      <c r="N23" t="s">
-        <v>198</v>
-      </c>
-      <c r="O23" t="s">
-        <v>60</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="X23" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
@@ -3684,7 +4683,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3693,43 +4692,53 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
-      </c>
-      <c r="P24" t="s"/>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
       <c r="T24" t="s"/>
-      <c r="U24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="X24" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="Y24" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25">
@@ -3745,7 +4754,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3754,43 +4763,53 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
       </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="X25" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y25" t="s">
         <v>224</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="26">
@@ -3806,7 +4825,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3815,43 +4834,49 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="J26" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="O26" t="s">
-        <v>78</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
       <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="X26" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="Y26" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27">
@@ -3867,7 +4892,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3876,45 +4901,43 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>5</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>239</v>
+      </c>
+      <c r="X27" t="s">
+        <v>240</v>
+      </c>
       <c r="Y27" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
@@ -3930,7 +4953,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3939,53 +4962,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="J28" t="s">
+        <v>244</v>
+      </c>
+      <c r="K28" t="s">
+        <v>245</v>
+      </c>
+      <c r="L28" t="s">
+        <v>246</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>247</v>
+      </c>
+      <c r="X28" t="s">
         <v>248</v>
       </c>
-      <c r="K28" t="s">
-        <v>253</v>
-      </c>
-      <c r="L28" t="s">
-        <v>254</v>
-      </c>
-      <c r="M28" t="n">
-        <v>5</v>
-      </c>
-      <c r="N28" t="s">
-        <v>242</v>
-      </c>
-      <c r="O28" t="s">
-        <v>95</v>
-      </c>
-      <c r="P28" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
-      <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="s">
-        <v>255</v>
-      </c>
-      <c r="X28" t="s">
-        <v>256</v>
-      </c>
       <c r="Y28" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
@@ -4001,7 +5014,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -4010,25 +5023,25 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="J29" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="K29" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L29" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O29" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -4050,13 +5063,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="X29" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Y29" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
@@ -4072,7 +5085,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4081,25 +5094,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -4121,13 +5134,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="X30" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="Y30" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
@@ -4143,7 +5156,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4152,31 +5165,35 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s">
-        <v>78</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
       <c r="Q31" t="n">
         <v>5</v>
       </c>
-      <c r="R31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
       <c r="S31" t="n">
         <v>5</v>
       </c>
@@ -4188,13 +5205,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="X31" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="Y31" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32">
@@ -4210,7 +5227,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -4219,53 +5236,53 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="X32" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="Y32" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33">
@@ -4281,7 +5298,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4290,25 +5307,25 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
         <v>288</v>
       </c>
       <c r="O33" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4329,10 +5346,14 @@
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>289</v>
+      </c>
+      <c r="X33" t="s">
+        <v>290</v>
+      </c>
       <c r="Y33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
@@ -4348,7 +5369,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4357,16 +5378,16 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="J34" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
@@ -4375,20 +5396,16 @@
         <v>288</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="n">
         <v>5</v>
       </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
         <v>5</v>
@@ -4397,13 +5414,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="X34" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Y34" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35">
@@ -4419,7 +5436,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4428,16 +5445,16 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J35" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K35" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L35" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
@@ -4446,21 +5463,35 @@
         <v>288</v>
       </c>
       <c r="O35" t="s">
-        <v>109</v>
-      </c>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>305</v>
+      </c>
+      <c r="X35" t="s">
+        <v>306</v>
+      </c>
       <c r="Y35" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36">
@@ -4476,25 +5507,25 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>308</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>309</v>
+      </c>
+      <c r="J36" t="s">
         <v>310</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>311</v>
       </c>
-      <c r="J36" t="s">
+      <c r="L36" t="s">
         <v>312</v>
-      </c>
-      <c r="K36" t="s">
-        <v>261</v>
-      </c>
-      <c r="L36" t="s">
-        <v>313</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -4503,7 +5534,7 @@
         <v>288</v>
       </c>
       <c r="O36" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -4525,13 +5556,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
+        <v>313</v>
+      </c>
+      <c r="X36" t="s">
         <v>314</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>315</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="37">
@@ -4547,62 +5578,62 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
         <v>317</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>318</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>319</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>320</v>
       </c>
-      <c r="L37" t="s">
-        <v>321</v>
-      </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
         <v>288</v>
       </c>
       <c r="O37" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
+        <v>321</v>
+      </c>
+      <c r="X37" t="s">
         <v>322</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>323</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="38">
@@ -4618,62 +5649,56 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>324</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
         <v>325</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>326</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>327</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>328</v>
       </c>
-      <c r="L38" t="s">
-        <v>329</v>
-      </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
+        <v>329</v>
+      </c>
+      <c r="X38" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y38" t="s">
         <v>331</v>
-      </c>
-      <c r="X38" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="39">
@@ -4689,37 +5714,37 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>333</v>
+      </c>
+      <c r="J39" t="s">
         <v>334</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>335</v>
       </c>
-      <c r="J39" t="s">
-        <v>327</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>336</v>
       </c>
-      <c r="L39" t="s">
-        <v>337</v>
-      </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="O39" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
         <v>5</v>
@@ -4738,13 +5763,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
+        <v>337</v>
+      </c>
+      <c r="X39" t="s">
         <v>338</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>339</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="40">
@@ -4760,56 +5785,52 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>340</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
         <v>341</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>342</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>343</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>344</v>
-      </c>
-      <c r="L40" t="s">
-        <v>345</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>330</v>
+        <v>288</v>
       </c>
       <c r="O40" t="s">
-        <v>60</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="X40" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="Y40" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41">
@@ -4825,7 +5846,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4834,50 +5855,40 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J41" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K41" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L41" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>352</v>
+        <v>288</v>
       </c>
       <c r="O41" t="s">
-        <v>78</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
-      <c r="U41" t="n">
-        <v>5</v>
-      </c>
+      <c r="U41" t="s"/>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="X41" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="Y41" t="s">
         <v>353</v>
@@ -4908,22 +5919,22 @@
         <v>355</v>
       </c>
       <c r="J42" t="s">
+        <v>350</v>
+      </c>
+      <c r="K42" t="s">
         <v>356</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>357</v>
       </c>
-      <c r="L42" t="s">
-        <v>358</v>
-      </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>352</v>
+        <v>288</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -4934,10 +5945,14 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>345</v>
+      </c>
+      <c r="X42" t="s">
+        <v>346</v>
+      </c>
       <c r="Y42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43">
@@ -4953,52 +5968,62 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
         <v>360</v>
       </c>
-      <c r="G43" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" t="s">
-        <v>47</v>
-      </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>361</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>362</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>363</v>
       </c>
-      <c r="L43" t="s">
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
         <v>364</v>
       </c>
-      <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="s">
-        <v>365</v>
-      </c>
       <c r="O43" t="s">
-        <v>78</v>
-      </c>
-      <c r="P43" t="s"/>
-      <c r="Q43" t="s"/>
-      <c r="R43" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
       <c r="S43" t="n">
         <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>365</v>
+      </c>
+      <c r="X43" t="s">
+        <v>366</v>
+      </c>
       <c r="Y43" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
     </row>
     <row r="44">
@@ -5014,7 +6039,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -5023,25 +6048,25 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="J44" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K44" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5062,10 +6087,14 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>373</v>
+      </c>
+      <c r="X44" t="s">
+        <v>374</v>
+      </c>
       <c r="Y44" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45">
@@ -5081,7 +6110,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5090,49 +6119,43 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="J45" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K45" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L45" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="O45" t="s">
-        <v>109</v>
-      </c>
-      <c r="P45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>1</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>381</v>
+      </c>
+      <c r="X45" t="s">
+        <v>382</v>
+      </c>
       <c r="Y45" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46">
@@ -5148,7 +6171,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5157,38 +6180,34 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="J46" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K46" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="L46" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="O46" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
       </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
         <v>5</v>
       </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
         <v>5</v>
@@ -5199,7 +6218,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47">
@@ -5215,7 +6234,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -5224,31 +6243,31 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="J47" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K47" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L47" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O47" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R47" t="n">
         <v>5</v>
@@ -5264,13 +6283,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="X47" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Y47" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="48">
@@ -5286,7 +6305,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -5295,34 +6314,34 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="J48" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="K48" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="L48" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="O48" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
         <v>5</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5335,13 +6354,13 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="X48" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Y48" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49">
@@ -5357,7 +6376,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -5366,28 +6385,28 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="J49" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K49" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L49" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="O49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
         <v>5</v>
@@ -5406,13 +6425,13 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="X49" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Y49" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50">
@@ -5428,7 +6447,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5437,31 +6456,31 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="J50" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K50" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L50" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="O50" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R50" t="n">
         <v>5</v>
@@ -5477,13 +6496,13 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="X50" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="Y50" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51">
@@ -5499,7 +6518,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5508,25 +6527,25 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="J51" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="K51" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="L51" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5548,13 +6567,13 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="X51" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="Y51" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52">
@@ -5570,7 +6589,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5579,43 +6598,49 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="J52" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K52" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="L52" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="O52" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P52" t="s"/>
-      <c r="Q52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
       <c r="R52" t="s"/>
-      <c r="S52" t="s"/>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
       <c r="T52" t="s"/>
-      <c r="U52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="X52" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Y52" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53">
@@ -5631,39 +6656,43 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
+        <v>437</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>438</v>
+      </c>
+      <c r="J53" t="s">
+        <v>439</v>
+      </c>
+      <c r="K53" t="s">
+        <v>415</v>
+      </c>
+      <c r="L53" t="s">
+        <v>440</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
         <v>433</v>
       </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" t="s">
-        <v>434</v>
-      </c>
-      <c r="J53" t="s">
-        <v>435</v>
-      </c>
-      <c r="K53" t="s">
-        <v>436</v>
-      </c>
-      <c r="L53" t="s">
-        <v>437</v>
-      </c>
-      <c r="M53" t="n">
-        <v>4</v>
-      </c>
-      <c r="N53" t="s">
-        <v>421</v>
-      </c>
       <c r="O53" t="s">
-        <v>78</v>
-      </c>
-      <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -5676,13 +6705,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="X53" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Y53" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54">
@@ -5698,7 +6727,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5707,53 +6736,43 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="J54" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K54" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="L54" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="O54" t="s">
-        <v>78</v>
-      </c>
-      <c r="P54" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
-      <c r="R54" t="n">
-        <v>5</v>
-      </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
-      <c r="U54" t="n">
-        <v>5</v>
-      </c>
+      <c r="U54" t="s"/>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="X54" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="Y54" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="55">
@@ -5769,7 +6788,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5778,43 +6797,53 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="J55" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="K55" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L55" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="O55" t="s">
-        <v>78</v>
-      </c>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="s"/>
-      <c r="R55" t="s"/>
-      <c r="S55" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
       <c r="T55" t="s"/>
-      <c r="U55" t="s"/>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="X55" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="Y55" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
     </row>
     <row r="56">
@@ -5830,7 +6859,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5839,49 +6868,49 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="J56" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="K56" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="L56" t="s">
+        <v>465</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
         <v>457</v>
       </c>
-      <c r="M56" t="n">
-        <v>4</v>
-      </c>
-      <c r="N56" t="s">
-        <v>451</v>
-      </c>
       <c r="O56" t="s">
-        <v>109</v>
-      </c>
-      <c r="P56" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R56" t="n">
         <v>5</v>
       </c>
-      <c r="S56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>458</v>
-      </c>
-      <c r="X56" t="s">
-        <v>459</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
     </row>
     <row r="57">
@@ -5897,7 +6926,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5906,49 +6935,53 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="J57" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="K57" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="L57" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="M57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="O57" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>471</v>
+      </c>
+      <c r="X57" t="s">
+        <v>472</v>
+      </c>
       <c r="Y57" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58">
@@ -5964,7 +6997,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5973,53 +7006,47 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="J58" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="K58" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="L58" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="M58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="O58" t="s">
-        <v>78</v>
-      </c>
-      <c r="P58" t="n">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P58" t="s"/>
       <c r="Q58" t="n">
-        <v>5</v>
-      </c>
-      <c r="R58" t="n">
-        <v>5</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="X58" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="Y58" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59">
@@ -6035,7 +7062,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -6044,43 +7071,53 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="J59" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K59" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="L59" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="O59" t="s">
-        <v>78</v>
-      </c>
-      <c r="P59" t="s"/>
-      <c r="Q59" t="s"/>
-      <c r="R59" t="s"/>
-      <c r="S59" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
       <c r="T59" t="s"/>
-      <c r="U59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="X59" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="Y59" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60">
@@ -6096,7 +7133,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6105,53 +7142,39 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
+        <v>491</v>
+      </c>
+      <c r="J60" t="s">
         <v>484</v>
       </c>
-      <c r="J60" t="s">
-        <v>485</v>
-      </c>
       <c r="K60" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="L60" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="O60" t="s">
-        <v>78</v>
-      </c>
-      <c r="P60" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>5</v>
-      </c>
-      <c r="R60" t="n">
-        <v>4</v>
-      </c>
-      <c r="S60" t="n">
-        <v>5</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
       <c r="T60" t="s"/>
-      <c r="U60" t="n">
-        <v>5</v>
-      </c>
+      <c r="U60" t="s"/>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>489</v>
-      </c>
-      <c r="X60" t="s">
-        <v>490</v>
-      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61">
@@ -6167,7 +7190,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6176,25 +7199,25 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="J61" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="K61" t="s">
-        <v>495</v>
+        <v>415</v>
       </c>
       <c r="L61" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>488</v>
+        <v>457</v>
       </c>
       <c r="O61" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6203,26 +7226,26 @@
         <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
         <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="X61" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y61" t="s">
         <v>498</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="62">
@@ -6238,34 +7261,34 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
+        <v>499</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
         <v>500</v>
       </c>
-      <c r="G62" t="s">
-        <v>46</v>
-      </c>
-      <c r="H62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>501</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>502</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>503</v>
       </c>
-      <c r="L62" t="s">
-        <v>504</v>
-      </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>505</v>
+        <v>457</v>
       </c>
       <c r="O62" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6287,13 +7310,13 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
+        <v>504</v>
+      </c>
+      <c r="X62" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y62" t="s">
         <v>506</v>
-      </c>
-      <c r="X62" t="s">
-        <v>507</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="63">
@@ -6309,34 +7332,34 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
+        <v>507</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>508</v>
+      </c>
+      <c r="J63" t="s">
         <v>509</v>
       </c>
-      <c r="G63" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" t="s">
-        <v>47</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="K63" t="s">
         <v>510</v>
       </c>
-      <c r="J63" t="s">
-        <v>502</v>
-      </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>511</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
         <v>512</v>
       </c>
-      <c r="M63" t="n">
-        <v>5</v>
-      </c>
-      <c r="N63" t="s">
-        <v>505</v>
-      </c>
       <c r="O63" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P63" t="n">
         <v>5</v>
@@ -6358,13 +7381,13 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="X63" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="Y63" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="64">
@@ -6380,7 +7403,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -6389,38 +7412,34 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="J64" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="K64" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L64" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="O64" t="s">
-        <v>109</v>
-      </c>
-      <c r="P64" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="n">
         <v>5</v>
       </c>
       <c r="R64" t="n">
         <v>5</v>
       </c>
-      <c r="S64" t="n">
-        <v>5</v>
-      </c>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
         <v>5</v>
@@ -6429,13 +7448,13 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="X64" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="Y64" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="65">
@@ -6451,7 +7470,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6460,32 +7479,38 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="J65" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="K65" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="L65" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="O65" t="s">
-        <v>78</v>
-      </c>
-      <c r="P65" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
       <c r="Q65" t="n">
-        <v>4</v>
-      </c>
-      <c r="R65" t="s"/>
-      <c r="S65" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
       <c r="T65" t="s"/>
       <c r="U65" t="n">
         <v>5</v>
@@ -6494,13 +7519,13 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="X65" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Y65" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66">
@@ -6516,7 +7541,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6525,10 +7550,10 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="J66" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="K66" t="s">
         <v>534</v>
@@ -6540,10 +7565,10 @@
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="O66" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6565,13 +7590,13 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
+        <v>536</v>
+      </c>
+      <c r="X66" t="s">
         <v>537</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>538</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="67">
@@ -6587,41 +7612,39 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
+        <v>539</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
         <v>540</v>
       </c>
-      <c r="G67" t="s">
-        <v>46</v>
-      </c>
-      <c r="H67" t="s">
-        <v>47</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>541</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>542</v>
       </c>
-      <c r="K67" t="s">
+      <c r="L67" t="s">
         <v>543</v>
       </c>
-      <c r="L67" t="s">
-        <v>544</v>
-      </c>
       <c r="M67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="O67" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="P67" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q67" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q67" t="s"/>
       <c r="R67" t="s"/>
       <c r="S67" t="s"/>
       <c r="T67" t="s"/>
@@ -6632,13 +7655,13 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
+        <v>536</v>
+      </c>
+      <c r="X67" t="s">
         <v>537</v>
       </c>
-      <c r="X67" t="s">
-        <v>538</v>
-      </c>
       <c r="Y67" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="68">
@@ -6654,58 +7677,52 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
+        <v>545</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
         <v>546</v>
       </c>
-      <c r="G68" t="s">
-        <v>46</v>
-      </c>
-      <c r="H68" t="s">
-        <v>47</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>547</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>548</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>549</v>
       </c>
-      <c r="L68" t="s">
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
         <v>550</v>
       </c>
-      <c r="M68" t="n">
-        <v>5</v>
-      </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>529</v>
+      </c>
+      <c r="X68" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y68" t="s">
         <v>551</v>
-      </c>
-      <c r="O68" t="s">
-        <v>60</v>
-      </c>
-      <c r="P68" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>5</v>
-      </c>
-      <c r="R68" t="n">
-        <v>4</v>
-      </c>
-      <c r="S68" t="n">
-        <v>5</v>
-      </c>
-      <c r="T68" t="s"/>
-      <c r="U68" t="n">
-        <v>4</v>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
-      </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="69">
@@ -6745,18 +7762,22 @@
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
-      </c>
-      <c r="P69" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
       <c r="Q69" t="n">
-        <v>5</v>
-      </c>
-      <c r="R69" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
       <c r="S69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
@@ -6766,13 +7787,3204 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
+        <v>536</v>
+      </c>
+      <c r="X69" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
         <v>558</v>
       </c>
-      <c r="X69" t="s">
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
         <v>559</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="J70" t="s">
         <v>560</v>
+      </c>
+      <c r="K70" t="s">
+        <v>561</v>
+      </c>
+      <c r="L70" t="s">
+        <v>562</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>563</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>529</v>
+      </c>
+      <c r="X70" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>565</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>566</v>
+      </c>
+      <c r="J71" t="s">
+        <v>567</v>
+      </c>
+      <c r="K71" t="s">
+        <v>568</v>
+      </c>
+      <c r="L71" t="s">
+        <v>569</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>563</v>
+      </c>
+      <c r="O71" t="s">
+        <v>84</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>571</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>572</v>
+      </c>
+      <c r="J72" t="s">
+        <v>573</v>
+      </c>
+      <c r="K72" t="s">
+        <v>574</v>
+      </c>
+      <c r="L72" t="s">
+        <v>575</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>576</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>577</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>578</v>
+      </c>
+      <c r="J73" t="s">
+        <v>579</v>
+      </c>
+      <c r="K73" t="s">
+        <v>580</v>
+      </c>
+      <c r="L73" t="s">
+        <v>581</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>563</v>
+      </c>
+      <c r="O73" t="s">
+        <v>84</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>582</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>583</v>
+      </c>
+      <c r="J74" t="s">
+        <v>584</v>
+      </c>
+      <c r="K74" t="s">
+        <v>585</v>
+      </c>
+      <c r="L74" t="s">
+        <v>586</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>563</v>
+      </c>
+      <c r="O74" t="s">
+        <v>84</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>587</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>588</v>
+      </c>
+      <c r="J75" t="s">
+        <v>589</v>
+      </c>
+      <c r="K75" t="s">
+        <v>590</v>
+      </c>
+      <c r="L75" t="s">
+        <v>591</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>592</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>593</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>594</v>
+      </c>
+      <c r="J76" t="s">
+        <v>595</v>
+      </c>
+      <c r="K76" t="s">
+        <v>596</v>
+      </c>
+      <c r="L76" t="s">
+        <v>597</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>592</v>
+      </c>
+      <c r="O76" t="s">
+        <v>158</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>598</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>599</v>
+      </c>
+      <c r="J77" t="s">
+        <v>600</v>
+      </c>
+      <c r="K77" t="s">
+        <v>601</v>
+      </c>
+      <c r="L77" t="s">
+        <v>602</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>592</v>
+      </c>
+      <c r="O77" t="s">
+        <v>158</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>603</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>604</v>
+      </c>
+      <c r="J78" t="s">
+        <v>605</v>
+      </c>
+      <c r="K78" t="s">
+        <v>606</v>
+      </c>
+      <c r="L78" t="s">
+        <v>607</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>576</v>
+      </c>
+      <c r="O78" t="s">
+        <v>158</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>608</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>609</v>
+      </c>
+      <c r="J79" t="s">
+        <v>610</v>
+      </c>
+      <c r="K79" t="s">
+        <v>611</v>
+      </c>
+      <c r="L79" t="s">
+        <v>612</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>576</v>
+      </c>
+      <c r="O79" t="s">
+        <v>84</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>613</v>
+      </c>
+      <c r="X79" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>616</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>617</v>
+      </c>
+      <c r="J80" t="s">
+        <v>618</v>
+      </c>
+      <c r="K80" t="s">
+        <v>619</v>
+      </c>
+      <c r="L80" t="s">
+        <v>620</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>576</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>621</v>
+      </c>
+      <c r="X80" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>624</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>625</v>
+      </c>
+      <c r="J81" t="s">
+        <v>626</v>
+      </c>
+      <c r="K81" t="s">
+        <v>627</v>
+      </c>
+      <c r="L81" t="s">
+        <v>628</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>629</v>
+      </c>
+      <c r="O81" t="s">
+        <v>158</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>630</v>
+      </c>
+      <c r="X81" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>633</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>634</v>
+      </c>
+      <c r="J82" t="s">
+        <v>635</v>
+      </c>
+      <c r="K82" t="s">
+        <v>636</v>
+      </c>
+      <c r="L82" t="s">
+        <v>637</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>629</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>638</v>
+      </c>
+      <c r="X82" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>641</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>642</v>
+      </c>
+      <c r="J83" t="s">
+        <v>643</v>
+      </c>
+      <c r="K83" t="s">
+        <v>644</v>
+      </c>
+      <c r="L83" t="s">
+        <v>645</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>646</v>
+      </c>
+      <c r="O83" t="s">
+        <v>84</v>
+      </c>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>647</v>
+      </c>
+      <c r="X83" t="s">
+        <v>648</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>650</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>651</v>
+      </c>
+      <c r="J84" t="s">
+        <v>652</v>
+      </c>
+      <c r="K84" t="s">
+        <v>653</v>
+      </c>
+      <c r="L84" t="s">
+        <v>654</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>655</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>656</v>
+      </c>
+      <c r="X84" t="s">
+        <v>657</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>659</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>660</v>
+      </c>
+      <c r="J85" t="s">
+        <v>661</v>
+      </c>
+      <c r="K85" t="s">
+        <v>662</v>
+      </c>
+      <c r="L85" t="s">
+        <v>663</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>655</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>664</v>
+      </c>
+      <c r="X85" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>667</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>668</v>
+      </c>
+      <c r="J86" t="s">
+        <v>669</v>
+      </c>
+      <c r="K86" t="s">
+        <v>670</v>
+      </c>
+      <c r="L86" t="s">
+        <v>671</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>672</v>
+      </c>
+      <c r="O86" t="s">
+        <v>84</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>673</v>
+      </c>
+      <c r="X86" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>676</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>677</v>
+      </c>
+      <c r="J87" t="s">
+        <v>678</v>
+      </c>
+      <c r="K87" t="s">
+        <v>679</v>
+      </c>
+      <c r="L87" t="s">
+        <v>680</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>672</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>681</v>
+      </c>
+      <c r="X87" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>684</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>685</v>
+      </c>
+      <c r="J88" t="s">
+        <v>686</v>
+      </c>
+      <c r="K88" t="s">
+        <v>687</v>
+      </c>
+      <c r="L88" t="s">
+        <v>688</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>672</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>690</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>691</v>
+      </c>
+      <c r="J89" t="s">
+        <v>692</v>
+      </c>
+      <c r="K89" t="s">
+        <v>693</v>
+      </c>
+      <c r="L89" t="s">
+        <v>694</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>672</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>695</v>
+      </c>
+      <c r="X89" t="s">
+        <v>696</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>698</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>699</v>
+      </c>
+      <c r="J90" t="s">
+        <v>700</v>
+      </c>
+      <c r="K90" t="s">
+        <v>701</v>
+      </c>
+      <c r="L90" t="s">
+        <v>702</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>672</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>703</v>
+      </c>
+      <c r="X90" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>706</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>707</v>
+      </c>
+      <c r="J91" t="s">
+        <v>708</v>
+      </c>
+      <c r="K91" t="s">
+        <v>709</v>
+      </c>
+      <c r="L91" t="s">
+        <v>710</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>672</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>703</v>
+      </c>
+      <c r="X91" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>712</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>713</v>
+      </c>
+      <c r="J92" t="s">
+        <v>708</v>
+      </c>
+      <c r="K92" t="s">
+        <v>714</v>
+      </c>
+      <c r="L92" t="s">
+        <v>715</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>716</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>703</v>
+      </c>
+      <c r="X92" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>718</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>719</v>
+      </c>
+      <c r="J93" t="s">
+        <v>720</v>
+      </c>
+      <c r="K93" t="s">
+        <v>721</v>
+      </c>
+      <c r="L93" t="s">
+        <v>722</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>716</v>
+      </c>
+      <c r="O93" t="s">
+        <v>84</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>723</v>
+      </c>
+      <c r="X93" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>726</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>727</v>
+      </c>
+      <c r="J94" t="s">
+        <v>728</v>
+      </c>
+      <c r="K94" t="s">
+        <v>729</v>
+      </c>
+      <c r="L94" t="s">
+        <v>730</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>716</v>
+      </c>
+      <c r="O94" t="s">
+        <v>158</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>731</v>
+      </c>
+      <c r="X94" t="s">
+        <v>732</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>734</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>735</v>
+      </c>
+      <c r="J95" t="s">
+        <v>736</v>
+      </c>
+      <c r="K95" t="s">
+        <v>737</v>
+      </c>
+      <c r="L95" t="s">
+        <v>738</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>716</v>
+      </c>
+      <c r="O95" t="s">
+        <v>158</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>739</v>
+      </c>
+      <c r="X95" t="s">
+        <v>740</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>742</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>743</v>
+      </c>
+      <c r="J96" t="s">
+        <v>744</v>
+      </c>
+      <c r="K96" t="s">
+        <v>745</v>
+      </c>
+      <c r="L96" t="s">
+        <v>746</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>716</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>1</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>748</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>749</v>
+      </c>
+      <c r="J97" t="s">
+        <v>750</v>
+      </c>
+      <c r="K97" t="s">
+        <v>751</v>
+      </c>
+      <c r="L97" t="s">
+        <v>752</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>716</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>753</v>
+      </c>
+      <c r="X97" t="s">
+        <v>754</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>756</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>757</v>
+      </c>
+      <c r="J98" t="s">
+        <v>758</v>
+      </c>
+      <c r="K98" t="s">
+        <v>759</v>
+      </c>
+      <c r="L98" t="s">
+        <v>760</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>716</v>
+      </c>
+      <c r="O98" t="s">
+        <v>131</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>761</v>
+      </c>
+      <c r="X98" t="s">
+        <v>762</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>764</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>765</v>
+      </c>
+      <c r="J99" t="s">
+        <v>766</v>
+      </c>
+      <c r="K99" t="s">
+        <v>767</v>
+      </c>
+      <c r="L99" t="s">
+        <v>768</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>716</v>
+      </c>
+      <c r="O99" t="s">
+        <v>84</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>769</v>
+      </c>
+      <c r="X99" t="s">
+        <v>770</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>772</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>773</v>
+      </c>
+      <c r="J100" t="s">
+        <v>774</v>
+      </c>
+      <c r="K100" t="s">
+        <v>775</v>
+      </c>
+      <c r="L100" t="s">
+        <v>776</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>716</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>769</v>
+      </c>
+      <c r="X100" t="s">
+        <v>770</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>778</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>779</v>
+      </c>
+      <c r="J101" t="s">
+        <v>780</v>
+      </c>
+      <c r="K101" t="s">
+        <v>781</v>
+      </c>
+      <c r="L101" t="s">
+        <v>782</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>783</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>784</v>
+      </c>
+      <c r="X101" t="s">
+        <v>785</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>787</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>788</v>
+      </c>
+      <c r="J102" t="s">
+        <v>789</v>
+      </c>
+      <c r="K102" t="s">
+        <v>790</v>
+      </c>
+      <c r="L102" t="s">
+        <v>791</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>783</v>
+      </c>
+      <c r="O102" t="s">
+        <v>158</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>792</v>
+      </c>
+      <c r="X102" t="s">
+        <v>793</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>795</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>796</v>
+      </c>
+      <c r="J103" t="s">
+        <v>797</v>
+      </c>
+      <c r="K103" t="s">
+        <v>798</v>
+      </c>
+      <c r="L103" t="s">
+        <v>799</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>783</v>
+      </c>
+      <c r="O103" t="s">
+        <v>77</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>4</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>800</v>
+      </c>
+      <c r="X103" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>803</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>804</v>
+      </c>
+      <c r="J104" t="s">
+        <v>805</v>
+      </c>
+      <c r="K104" t="s">
+        <v>806</v>
+      </c>
+      <c r="L104" t="s">
+        <v>807</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>783</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>800</v>
+      </c>
+      <c r="X104" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>809</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>810</v>
+      </c>
+      <c r="J105" t="s">
+        <v>811</v>
+      </c>
+      <c r="K105" t="s">
+        <v>812</v>
+      </c>
+      <c r="L105" t="s">
+        <v>813</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>814</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>800</v>
+      </c>
+      <c r="X105" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>816</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>817</v>
+      </c>
+      <c r="J106" t="s">
+        <v>811</v>
+      </c>
+      <c r="K106" t="s">
+        <v>818</v>
+      </c>
+      <c r="L106" t="s">
+        <v>819</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>814</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>800</v>
+      </c>
+      <c r="X106" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>821</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>822</v>
+      </c>
+      <c r="J107" t="s">
+        <v>823</v>
+      </c>
+      <c r="K107" t="s">
+        <v>824</v>
+      </c>
+      <c r="L107" t="s">
+        <v>825</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>814</v>
+      </c>
+      <c r="O107" t="s">
+        <v>158</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>826</v>
+      </c>
+      <c r="X107" t="s">
+        <v>827</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>829</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>830</v>
+      </c>
+      <c r="J108" t="s">
+        <v>831</v>
+      </c>
+      <c r="K108" t="s">
+        <v>832</v>
+      </c>
+      <c r="L108" t="s">
+        <v>833</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>814</v>
+      </c>
+      <c r="O108" t="s">
+        <v>84</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>5</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>826</v>
+      </c>
+      <c r="X108" t="s">
+        <v>827</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>835</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>836</v>
+      </c>
+      <c r="J109" t="s">
+        <v>837</v>
+      </c>
+      <c r="K109" t="s">
+        <v>838</v>
+      </c>
+      <c r="L109" t="s">
+        <v>839</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>814</v>
+      </c>
+      <c r="O109" t="s">
+        <v>131</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>5</v>
+      </c>
+      <c r="R109" t="n">
+        <v>5</v>
+      </c>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>840</v>
+      </c>
+      <c r="X109" t="s">
+        <v>841</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>843</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>844</v>
+      </c>
+      <c r="J110" t="s">
+        <v>845</v>
+      </c>
+      <c r="K110" t="s">
+        <v>846</v>
+      </c>
+      <c r="L110" t="s">
+        <v>847</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>848</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>849</v>
+      </c>
+      <c r="X110" t="s">
+        <v>850</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>852</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>853</v>
+      </c>
+      <c r="J111" t="s">
+        <v>854</v>
+      </c>
+      <c r="K111" t="s">
+        <v>855</v>
+      </c>
+      <c r="L111" t="s">
+        <v>856</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>857</v>
+      </c>
+      <c r="O111" t="s">
+        <v>84</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>5</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>858</v>
+      </c>
+      <c r="X111" t="s">
+        <v>859</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>861</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>862</v>
+      </c>
+      <c r="J112" t="s">
+        <v>863</v>
+      </c>
+      <c r="K112" t="s">
+        <v>864</v>
+      </c>
+      <c r="L112" t="s">
+        <v>865</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>857</v>
+      </c>
+      <c r="O112" t="s">
+        <v>53</v>
+      </c>
+      <c r="P112" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="s"/>
+      <c r="S112" t="s"/>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>858</v>
+      </c>
+      <c r="X112" t="s">
+        <v>859</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>867</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>868</v>
+      </c>
+      <c r="J113" t="s">
+        <v>869</v>
+      </c>
+      <c r="K113" t="s">
+        <v>870</v>
+      </c>
+      <c r="L113" t="s">
+        <v>871</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>872</v>
+      </c>
+      <c r="O113" t="s">
+        <v>84</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s">
+        <v>873</v>
+      </c>
+      <c r="X113" t="s">
+        <v>874</v>
+      </c>
+      <c r="Y113" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>876</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>877</v>
+      </c>
+      <c r="J114" t="s">
+        <v>878</v>
+      </c>
+      <c r="K114" t="s">
+        <v>879</v>
+      </c>
+      <c r="L114" t="s">
+        <v>880</v>
+      </c>
+      <c r="M114" t="n">
+        <v>4</v>
+      </c>
+      <c r="N114" t="s">
+        <v>872</v>
+      </c>
+      <c r="O114" t="s">
+        <v>158</v>
+      </c>
+      <c r="P114" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q114" t="s"/>
+      <c r="R114" t="n">
+        <v>5</v>
+      </c>
+      <c r="S114" t="s"/>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s">
+        <v>881</v>
+      </c>
+      <c r="X114" t="s">
+        <v>882</v>
+      </c>
+      <c r="Y114" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>884</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>885</v>
+      </c>
+      <c r="J115" t="s">
+        <v>886</v>
+      </c>
+      <c r="K115" t="s">
+        <v>887</v>
+      </c>
+      <c r="L115" t="s">
+        <v>888</v>
+      </c>
+      <c r="M115" t="n">
+        <v>5</v>
+      </c>
+      <c r="N115" t="s">
+        <v>872</v>
+      </c>
+      <c r="O115" t="s">
+        <v>84</v>
+      </c>
+      <c r="P115" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>4</v>
+      </c>
+      <c r="S115" t="n">
+        <v>5</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>4</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>64196</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>889</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>890</v>
+      </c>
+      <c r="J116" t="s">
+        <v>891</v>
+      </c>
+      <c r="K116" t="s">
+        <v>892</v>
+      </c>
+      <c r="L116" t="s">
+        <v>893</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>894</v>
+      </c>
+      <c r="O116" t="s">
+        <v>84</v>
+      </c>
+      <c r="P116" t="s"/>
+      <c r="Q116" t="n">
+        <v>5</v>
+      </c>
+      <c r="R116" t="s"/>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s">
+        <v>895</v>
+      </c>
+      <c r="X116" t="s">
+        <v>896</v>
+      </c>
+      <c r="Y116" t="s">
+        <v>897</v>
       </c>
     </row>
   </sheetData>
